--- a/TPO_听力_生词_1-2环境生态.xlsx
+++ b/TPO_听力_生词_1-2环境生态.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="240" windowWidth="19260" windowHeight="13340" tabRatio="767" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24920" windowHeight="15600" tabRatio="767" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,9 @@
     <sheet name="TPO17-3" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'TPO10-5'!$B$1:$E$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'TPO10-5'!$B$1:$E$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TPO3-2'!$B$1:$C$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TPO9-3'!$A$1:$D$28</definedName>
   </definedNames>
   <calcPr calcId="140000" calcMode="manual" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="739">
   <si>
     <t>3-2蜂鸟，</t>
   </si>
@@ -638,287 +639,113 @@
     <t>气候</t>
   </si>
   <si>
-    <t xml:space="preserve">abundant </t>
-  </si>
-  <si>
-    <t>大量的</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celsius </t>
-  </si>
-  <si>
-    <t>摄氏度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">temperature </t>
-  </si>
-  <si>
     <t>温度</t>
   </si>
   <si>
-    <t xml:space="preserve">surface </t>
-  </si>
-  <si>
-    <t>地面，表面</t>
-  </si>
-  <si>
-    <t xml:space="preserve">puzzle </t>
-  </si>
-  <si>
-    <t>谜团</t>
-  </si>
-  <si>
     <t xml:space="preserve">vegetation </t>
   </si>
   <si>
     <t>植被</t>
   </si>
   <si>
-    <t xml:space="preserve">previously </t>
-  </si>
-  <si>
-    <t>以前</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shrub </t>
-  </si>
-  <si>
-    <t>灌木</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">occur </t>
-  </si>
-  <si>
-    <t>发生</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tundra </t>
-  </si>
-  <si>
-    <t>冻原，苔原</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biological </t>
-  </si>
-  <si>
-    <t>生物学的</t>
-  </si>
-  <si>
     <t xml:space="preserve">precipitation </t>
   </si>
   <si>
-    <t>降水，降水量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">layer </t>
-  </si>
-  <si>
-    <t>层</t>
-  </si>
-  <si>
-    <t xml:space="preserve">microbe </t>
-  </si>
-  <si>
-    <t>微生物</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thaw </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>解冻，融雪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">microscopic </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>细微的</t>
-  </si>
-  <si>
-    <t xml:space="preserve">permafrost </t>
-  </si>
-  <si>
-    <t>永冻层</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">organism </t>
-  </si>
-  <si>
-    <t>生物体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">impermeable </t>
-  </si>
-  <si>
-    <t>不可渗透的</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enable </t>
-  </si>
-  <si>
-    <t>使能够</t>
-  </si>
-  <si>
-    <t>interfere with</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>妨碍，干扰</t>
-  </si>
-  <si>
     <t xml:space="preserve">nitrogen </t>
   </si>
   <si>
     <t>氮</t>
   </si>
   <si>
-    <t xml:space="preserve">blanket </t>
-  </si>
-  <si>
     <t>覆盖</t>
   </si>
   <si>
-    <t xml:space="preserve">penetrate </t>
-  </si>
-  <si>
-    <t>穿透</t>
-  </si>
-  <si>
-    <t xml:space="preserve">insulating </t>
-  </si>
-  <si>
-    <t>隔热的</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expansion </t>
-  </si>
-  <si>
-    <t>扩张</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beneath </t>
-  </si>
-  <si>
-    <t>在…下面</t>
-  </si>
-  <si>
-    <t xml:space="preserve">semiarid </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>半干旱的</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">nutrient </t>
-  </si>
-  <si>
-    <t>养分</t>
-  </si>
-  <si>
-    <t>prairie</t>
-  </si>
-  <si>
-    <t>草原</t>
-  </si>
-  <si>
-    <t xml:space="preserve">run-off </t>
-  </si>
-  <si>
-    <t>溢流，流失</t>
-  </si>
-  <si>
-    <t xml:space="preserve">persist </t>
-  </si>
-  <si>
-    <t>持续，持久</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">peak </t>
-  </si>
-  <si>
-    <t>高峰期，巅峰，山峰</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">shift </t>
-  </si>
-  <si>
     <t>转变</t>
   </si>
   <si>
-    <t xml:space="preserve">drift </t>
-  </si>
-  <si>
-    <t>堆，堆积物</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">establish </t>
-  </si>
-  <si>
-    <t>建立，成立，根深蒂固</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">microbial </t>
   </si>
   <si>
-    <t>微生物的</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thrive </t>
-  </si>
-  <si>
-    <t>繁荣，欣欣向荣</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">loop </t>
-  </si>
-  <si>
-    <t>圈，循环</t>
-  </si>
-  <si>
     <t xml:space="preserve">Arctic </t>
   </si>
   <si>
-    <t>北极地带</t>
-  </si>
-  <si>
-    <t>bush</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>灌木，矮树丛</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>shrub cover</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>灌木覆盖区</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>shrub-free</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有灌木生长的</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>melt</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>融化</t>
+    <t>TPO10-5</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">weather </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">mine </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">scarce </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">scarcity </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">phase </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>氮</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">carbon </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphorus </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>磷</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">algae </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>藻类</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">clog </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">particle </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>make one's way to</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>达到</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>settle</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>empty into</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -926,364 +753,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>冲刷</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>catch</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>拦截，抓住</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>frozen</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰冻的</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>present…with…</t>
-  </si>
-  <si>
-    <t>向…提出…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">take advantage of </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>利用</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPO10-5</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">nutrient </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>养分</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">weather </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">environment </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">release </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">absorb </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸收</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">organism </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>生物体</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">mine </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">reproduce </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>繁殖，复制</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">contain </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>含有</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">scarce </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">agriculture </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">fortunately </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运地</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">artificially </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工地</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">recycle </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">fertilizer </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>肥料</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">scarcity </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">natural </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>自然的</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>occur</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>发生</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ecosystem </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>生态系统</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">decompose </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>腐烂，分解</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">phase </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>氮</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">normal </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常的</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">carbon </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>碳</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">eventually </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终地</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">phosphorus </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>磷</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">algae </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>藻类</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ecologist </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>生态学家</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">excessive </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>过度的</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">abundant </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>丰富的</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>waterway</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>水道，河道</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">quantity </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>量，数量</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">clog </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">break down </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>分解</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">current </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">particle </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">deal with </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理，应对</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>make one's way to</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>达到</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>crop</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>农作物</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>settle</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>rapid</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>surface</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>地表</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>issue</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>empty into</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>wash away</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>element</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>化学元素</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>flow</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>（水体，气体）流动</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>geological force</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1300,14 +769,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>interrupt</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>中断，打扰</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>fishing industry</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1324,35 +785,11 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>atmosphere</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>大气</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>erode</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>侵蚀</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>substantial</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>end up in</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>minimal</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>极少的</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -2937,10 +2374,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>v./n.循环，回收利用</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>n.不足；缺乏</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -2989,19 +2422,7 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>v.阶段；时期</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>v.堵塞  n.障碍</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>a.现在的；流通的   n.趋势</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>a.迅速的</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -3298,6 +2719,206 @@
   </si>
   <si>
     <t>erode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微生物的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shrub-free</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>北极地带</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">celsius </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">drift </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有灌木生长的</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>v/n.堆,堆积(物);     v/n漂流(物)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">expand /expansion </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.扩张   n.扩张(物)；  阐述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insulate
+insulating </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.隔绝
+a.隔绝的；隔热的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微生物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">microbe </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">microscopic </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.细微的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>降水，降水量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bush/shrub</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄氏度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>present
+present…with…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prairie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.半干旱的
+a.干旱的</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad.以前
+a.以前</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 提出；出席；赠送
+向…提出…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interfere
+interfere with</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>草原</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.阶段；时期</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterway</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>水道，河道</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">current </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.现在的；流通的   n.流；趋势</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.解冻，融雪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.繁荣， 兴旺</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.冻原，苔原</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>previously 
+previous</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.妨碍，干扰
+妨碍，干扰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>semiarid 
+arid</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">thaw </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">thrive </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tundra </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">penetrate </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.渗透；穿透</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">permafrost </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永冻层</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">a.不可渗透的
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.渗透</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>permeate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">impermeable 
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3470,7 +3091,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3504,6 +3125,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="24"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3545,7 +3172,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4311">
+  <cellStyleXfs count="5135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -7859,8 +7486,832 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7912,25 +8363,54 @@
     <xf numFmtId="176" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4311">
+  <cellStyles count="5135">
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -10086,6 +10566,418 @@
     <cellStyle name="超链接" xfId="4305" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4307" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4309" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4311" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4313" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4315" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4317" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4319" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4321" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4323" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4325" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4327" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4329" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4331" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4333" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4335" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4337" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4339" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4341" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4343" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4345" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4347" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4349" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4351" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4353" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4355" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4357" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4359" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4361" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4363" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4365" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4367" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4369" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4371" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4373" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4375" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4377" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4379" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4381" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4383" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4385" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4387" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4389" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4391" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4393" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4395" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4397" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4399" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4401" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4403" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4405" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4407" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4409" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4411" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4413" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4415" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4417" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4419" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4421" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4423" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4425" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4427" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4429" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4431" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4433" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4435" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4437" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4439" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4441" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4443" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4445" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4447" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4449" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4451" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4453" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4455" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4457" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4459" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4461" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4463" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4465" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4467" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4469" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4471" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4473" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4475" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4477" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4479" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4481" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4483" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4485" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4487" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4489" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4491" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4493" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4495" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4497" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4499" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4501" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4503" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4505" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4507" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4509" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4511" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4513" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4515" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4517" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4519" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4521" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4523" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4525" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4527" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4529" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4531" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4533" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4535" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4537" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4539" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4541" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4543" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4545" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4547" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4549" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4551" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4553" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4555" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4557" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4559" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4561" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4563" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4565" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4567" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4569" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4571" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4573" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4575" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4577" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4579" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4581" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4583" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4585" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4587" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4589" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4591" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4593" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4595" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4597" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4599" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4601" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4603" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4605" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4607" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4609" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4611" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4613" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4615" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4617" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4619" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4621" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4623" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4625" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4627" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4629" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4631" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4633" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4635" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4637" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4639" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4641" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4643" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4645" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4647" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4649" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4651" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4653" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4655" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4657" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4659" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4661" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4663" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4665" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4667" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4669" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4671" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4673" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4675" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4677" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4679" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4681" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4683" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4685" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4687" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4689" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4691" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4693" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4695" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4697" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4699" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4701" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4703" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4705" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4707" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4709" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4711" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4713" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4715" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4717" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4719" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4721" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4723" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4725" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4727" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4729" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4731" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4733" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4735" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4737" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4739" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4741" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4743" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4745" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4747" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4749" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4751" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4753" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4755" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4757" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4759" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4761" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4763" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4765" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4767" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4769" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4771" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4773" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4775" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4777" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4779" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4781" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4783" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4785" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4787" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4789" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4791" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4793" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4795" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4797" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4799" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4801" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4803" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4805" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4807" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4809" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4811" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4813" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4815" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4817" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4819" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4821" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4823" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4825" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4827" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4829" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4831" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4833" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4835" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4837" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4839" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4841" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4843" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4845" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4847" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4849" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4851" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4853" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4855" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4857" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4859" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4861" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4863" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4865" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4867" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4869" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4871" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4873" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4875" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4877" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4879" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4881" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4883" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4885" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4887" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4889" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4891" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4893" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4895" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4897" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4899" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4901" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4903" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4905" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4907" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4909" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4911" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4913" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4915" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4917" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4919" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4921" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4923" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4925" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4927" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4929" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4931" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4933" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4935" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4937" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4939" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4941" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4943" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4945" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4947" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4949" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4951" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4953" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4955" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4957" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4959" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4961" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4963" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4965" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4967" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4969" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4971" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4973" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4975" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4977" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4979" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4981" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4983" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4985" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4987" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4989" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4991" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4993" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4995" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4997" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4999" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5001" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5003" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5005" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5007" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5009" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5011" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5013" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5015" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5017" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5019" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5021" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5023" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5025" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5027" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5029" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5031" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5033" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5035" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5037" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5039" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5041" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5043" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5045" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5047" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5049" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5051" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5053" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5055" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5057" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5059" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5061" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5063" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5065" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5067" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5069" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5071" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5073" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5075" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5077" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5079" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5081" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5083" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5085" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5087" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5089" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5091" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5093" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5095" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5097" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5099" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5133" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
@@ -12240,10 +13132,477 @@
     <cellStyle name="访问过的超链接" xfId="4306" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4308" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4310" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4312" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4314" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4316" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4318" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4320" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4322" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4324" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4326" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4328" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4330" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4332" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4334" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4336" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4338" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4340" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4342" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4344" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4346" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4348" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4350" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4352" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4354" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4356" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4358" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4360" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4362" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4364" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4366" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4368" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4370" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4372" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4374" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4376" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4378" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4380" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4382" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4384" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4386" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4388" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4390" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4392" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4394" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4396" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4398" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4400" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4402" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4404" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4406" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4408" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4410" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4412" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4414" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4416" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4418" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4420" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4422" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4424" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4426" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4428" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4430" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4432" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4434" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4436" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4438" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4440" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4442" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4444" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4446" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4448" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4450" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4452" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4454" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4456" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4458" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4460" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4462" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4464" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4466" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4468" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4470" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4472" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4474" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4476" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4478" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4480" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4482" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4484" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4486" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4488" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4490" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4492" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4494" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4496" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4498" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4500" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4502" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4504" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4506" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4508" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4510" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4512" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4514" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4516" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4518" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4520" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4522" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4524" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4526" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4528" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4530" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4532" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4534" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4536" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4538" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4540" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4542" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4544" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4546" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4548" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4550" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4552" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4554" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4556" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4558" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4560" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4562" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4564" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4566" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4568" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4570" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4572" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4574" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4576" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4578" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4580" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4582" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4584" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4586" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4588" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4590" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4592" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4594" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4596" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4598" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4600" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4602" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4604" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4606" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4608" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4610" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4612" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4614" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4616" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4618" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4620" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4622" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4624" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4626" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4628" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4630" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4632" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4634" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4636" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4638" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4640" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4642" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4644" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4646" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4648" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4650" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4652" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4654" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4656" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4658" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4660" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4662" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4664" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4666" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4668" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4670" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4672" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4674" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4676" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4678" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4680" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4682" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4684" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4686" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4688" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4690" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4692" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4694" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4696" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4698" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4700" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4702" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4704" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4706" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4708" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4710" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4712" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4714" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4716" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4718" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4720" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4722" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4724" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4726" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4728" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4730" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4732" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4734" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4736" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4738" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4740" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4742" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4744" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4746" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4748" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4750" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4752" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4754" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4756" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4758" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4760" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4762" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4764" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4766" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4768" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4770" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4772" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4774" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4776" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4778" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4780" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4782" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4784" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4786" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4788" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4790" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4792" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4794" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4796" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4798" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4800" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4802" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4804" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4806" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4808" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4810" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4812" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4814" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4816" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4818" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4820" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4822" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4824" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4826" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4828" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4830" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4832" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4834" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4836" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4838" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4840" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4842" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4844" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4846" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4848" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4850" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4852" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4854" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4856" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4858" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4860" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4862" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4864" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4866" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4868" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4870" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4872" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4874" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4876" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4878" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4880" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4882" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4884" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4886" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4888" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4890" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4892" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4894" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4896" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4898" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4900" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4902" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4904" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4906" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4908" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4910" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4912" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4914" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4916" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4918" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4920" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4922" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4924" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4926" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4928" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4930" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4932" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4934" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4936" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4938" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4940" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4942" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4944" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4946" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4948" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4950" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4952" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4954" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4956" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4958" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4960" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4962" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4964" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4966" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4968" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4970" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4972" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4974" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4976" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4978" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4980" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4982" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4984" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4986" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4988" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4990" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4992" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4994" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4996" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4998" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5000" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5002" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5004" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5006" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5008" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5010" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5012" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5014" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5016" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5018" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5020" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5022" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5024" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5026" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5028" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5030" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5032" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5034" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5036" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5038" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5040" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5042" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5044" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5046" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5048" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5050" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5052" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5054" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5056" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5058" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5060" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5062" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5064" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5066" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5068" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5070" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5072" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5074" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5076" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5078" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5080" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5082" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5084" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5086" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5088" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5090" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5092" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5094" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5096" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5098" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5134" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF808080"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF808080"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF808080"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF808080"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFD9D9D9"/>
@@ -12602,7 +13961,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>819</v>
+        <v>659</v>
       </c>
       <c r="D1" t="s">
         <v>77</v>
@@ -12616,10 +13975,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>821</v>
+        <v>661</v>
       </c>
       <c r="D2" t="s">
-        <v>820</v>
+        <v>660</v>
       </c>
       <c r="E2" t="s">
         <v>150</v>
@@ -12633,19 +13992,19 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>825</v>
+        <v>665</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>822</v>
+        <v>662</v>
       </c>
       <c r="D4" t="s">
-        <v>822</v>
+        <v>662</v>
       </c>
       <c r="E4" t="s">
-        <v>821</v>
+        <v>661</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -13138,7 +14497,7 @@
     <row r="52" spans="1:3" ht="20" customHeight="1">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
-        <v>823</v>
+        <v>663</v>
       </c>
       <c r="C52" s="18"/>
     </row>
@@ -13483,7 +14842,7 @@
   </sheetData>
   <autoFilter ref="B1:C35">
     <sortState ref="B2:C34">
-      <sortCondition sortBy="fontColor" ref="B1:B34" dxfId="1"/>
+      <sortCondition sortBy="fontColor" ref="B1:B34" dxfId="12"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -13500,559 +14859,363 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表3" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.5703125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="40"/>
+    <col min="2" max="2" width="33.42578125" style="40" customWidth="1"/>
+    <col min="3" max="16384" width="17.5703125" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" customHeight="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:4" ht="17">
+      <c r="A1" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>353</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>761</v>
-      </c>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>605</v>
+      </c>
+      <c r="D1" s="43" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
-      <c r="A2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
-      <c r="A3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="2" spans="1:4" ht="17">
+      <c r="A2" s="45" t="s">
+        <v>695</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>709</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" ht="17">
+      <c r="A3" s="45" t="s">
+        <v>733</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>734</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4" ht="34">
+      <c r="A4" s="48" t="s">
+        <v>738</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17">
+      <c r="A5" s="48" t="s">
+        <v>737</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17">
+      <c r="A6" s="45" t="s">
+        <v>731</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>732</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" ht="17">
+      <c r="A7" s="45" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
-      <c r="A4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
-      <c r="A5" t="s">
+      <c r="B7" s="44" t="s">
+        <v>707</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4" ht="34">
+      <c r="A8" s="45" t="s">
+        <v>728</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>722</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:4" ht="34">
+      <c r="A9" s="45" t="s">
+        <v>729</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>723</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" ht="34">
+      <c r="A10" s="45" t="s">
+        <v>730</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>724</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" ht="34">
+      <c r="A11" s="52" t="s">
+        <v>715</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>726</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:4" ht="17">
+      <c r="A12" s="47" t="s">
+        <v>633</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:4" ht="17">
+      <c r="A13" s="47" t="s">
+        <v>635</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>636</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" ht="34">
+      <c r="A14" s="49" t="s">
+        <v>708</v>
+      </c>
+      <c r="B14" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
-      <c r="A6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
-      <c r="A7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
-      <c r="A8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
-      <c r="A9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
-      <c r="A10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
-      <c r="A11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
-      <c r="A12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
-      <c r="A13" t="s">
-        <v>195</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
-      <c r="A14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
-      <c r="A15" t="s">
-        <v>203</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1">
-      <c r="A16" t="s">
-        <v>207</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
-      <c r="A17" t="s">
-        <v>211</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
-      <c r="A18" t="s">
-        <v>215</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
-      <c r="A19" t="s">
-        <v>219</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
-      <c r="A20" t="s">
-        <v>223</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
-      <c r="A21" t="s">
-        <v>227</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
-      <c r="A22" t="s">
-        <v>231</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="20" customHeight="1">
-      <c r="A23" t="s">
-        <v>235</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="20" customHeight="1">
-      <c r="A24" t="s">
-        <v>239</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="20" customHeight="1">
-      <c r="A25" t="s">
-        <v>243</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="20" customHeight="1">
-      <c r="A26" t="s">
-        <v>247</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="20" customHeight="1">
-      <c r="A27" t="s">
-        <v>251</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="20" customHeight="1">
-      <c r="A28" t="s">
-        <v>155</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="20" customHeight="1">
-      <c r="A29" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" ht="17">
+      <c r="A15" s="49" t="s">
+        <v>693</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>697</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" ht="34">
+      <c r="A16" s="49" t="s">
+        <v>696</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>698</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="1:4" ht="34">
+      <c r="A17" s="51" t="s">
+        <v>699</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>700</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="1:4" ht="34">
+      <c r="A18" s="49" t="s">
+        <v>711</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>716</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" ht="34">
+      <c r="A19" s="51" t="s">
+        <v>710</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>714</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:4" ht="17">
+      <c r="A20" s="51" t="s">
+        <v>725</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>713</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="1:4" ht="17">
+      <c r="A21" s="51" t="s">
+        <v>727</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>712</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="1:4" ht="17">
+      <c r="A22" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>694</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:4" ht="17">
+      <c r="A23" s="51" t="s">
+        <v>701</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>702</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:4" ht="17">
+      <c r="A24" s="49" t="s">
+        <v>704</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>703</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:4" ht="17">
+      <c r="A25" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>692</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:4" ht="17">
+      <c r="A26" s="49" t="s">
+        <v>705</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>706</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27" spans="1:4" ht="17">
+      <c r="A27" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B27" s="44" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="20" customHeight="1">
-      <c r="A30" t="s">
-        <v>163</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="20" customHeight="1">
-      <c r="A31" t="s">
-        <v>167</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="20" customHeight="1">
-      <c r="A32" t="s">
-        <v>171</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="20" customHeight="1">
-      <c r="A33" t="s">
-        <v>175</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="20" customHeight="1">
-      <c r="A34" s="31" t="s">
-        <v>790</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="20" customHeight="1">
-      <c r="A35" s="31" t="s">
-        <v>792</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="20" customHeight="1">
-      <c r="A36" t="s">
-        <v>181</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="20" customHeight="1">
-      <c r="A37" t="s">
-        <v>185</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="20" customHeight="1">
-      <c r="A38" t="s">
-        <v>189</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="20" customHeight="1">
-      <c r="A39" t="s">
-        <v>193</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="20" customHeight="1">
-      <c r="A40" t="s">
-        <v>197</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="20" customHeight="1">
-      <c r="A41" t="s">
-        <v>201</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="20" customHeight="1">
-      <c r="A42" t="s">
-        <v>205</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="20" customHeight="1">
-      <c r="A43" t="s">
-        <v>209</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="20" customHeight="1">
-      <c r="A44" t="s">
-        <v>213</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="20" customHeight="1">
-      <c r="A45" t="s">
-        <v>217</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="20" customHeight="1">
-      <c r="A46" t="s">
-        <v>221</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="20" customHeight="1">
-      <c r="A47" t="s">
-        <v>225</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="20" customHeight="1">
-      <c r="A48" t="s">
-        <v>229</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="20" customHeight="1">
-      <c r="A49" t="s">
-        <v>233</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="20" customHeight="1">
-      <c r="A50" t="s">
-        <v>237</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="20" customHeight="1">
-      <c r="A51" t="s">
-        <v>241</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="20" customHeight="1">
-      <c r="A52" t="s">
-        <v>245</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="20" customHeight="1">
-      <c r="A53" t="s">
-        <v>249</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="20" customHeight="1">
-      <c r="B54" s="4"/>
-    </row>
-    <row r="55" spans="1:2" ht="20" customHeight="1">
-      <c r="B55" s="4"/>
-    </row>
-    <row r="56" spans="1:2" ht="20" customHeight="1">
-      <c r="B56" s="4"/>
-    </row>
-    <row r="57" spans="1:2" ht="20" customHeight="1">
-      <c r="B57" s="4"/>
-    </row>
-    <row r="58" spans="1:2" ht="20" customHeight="1">
-      <c r="B58" s="4"/>
-    </row>
-    <row r="59" spans="1:2" ht="20" customHeight="1">
-      <c r="B59" s="4"/>
-    </row>
-    <row r="60" spans="1:2" ht="20" customHeight="1">
-      <c r="B60" s="4"/>
-    </row>
-    <row r="61" spans="1:2" ht="20" customHeight="1">
-      <c r="B61" s="4"/>
-    </row>
-    <row r="62" spans="1:2" ht="20" customHeight="1">
-      <c r="B62" s="4"/>
-    </row>
-    <row r="63" spans="1:2" ht="20" customHeight="1">
-      <c r="B63" s="4"/>
-    </row>
-    <row r="64" spans="1:2" ht="20" customHeight="1">
-      <c r="B64" s="4"/>
-    </row>
-    <row r="65" spans="2:2" ht="20" customHeight="1">
-      <c r="B65" s="4"/>
-    </row>
-    <row r="66" spans="2:2" ht="20" customHeight="1">
-      <c r="B66" s="4"/>
-    </row>
-    <row r="67" spans="2:2" ht="20" customHeight="1">
-      <c r="B67" s="4"/>
-    </row>
-    <row r="68" spans="2:2" ht="20" customHeight="1">
-      <c r="B68" s="4"/>
-    </row>
-    <row r="69" spans="2:2" ht="20" customHeight="1">
-      <c r="B69" s="4"/>
-    </row>
-    <row r="70" spans="2:2" ht="20" customHeight="1">
-      <c r="B70" s="4"/>
-    </row>
-    <row r="71" spans="2:2" ht="20" customHeight="1">
-      <c r="B71" s="4"/>
-    </row>
-    <row r="72" spans="2:2" ht="20" customHeight="1">
-      <c r="B72" s="4"/>
-    </row>
-    <row r="73" spans="2:2" ht="20" customHeight="1">
-      <c r="B73" s="4"/>
-    </row>
-    <row r="74" spans="2:2" ht="20" customHeight="1">
-      <c r="B74" s="4"/>
-    </row>
-    <row r="75" spans="2:2" ht="20" customHeight="1">
-      <c r="B75" s="4"/>
-    </row>
-    <row r="76" spans="2:2" ht="20" customHeight="1">
-      <c r="B76" s="4"/>
-    </row>
-    <row r="77" spans="2:2" ht="20" customHeight="1">
-      <c r="B77" s="4"/>
-    </row>
-    <row r="78" spans="2:2" ht="20" customHeight="1">
-      <c r="B78" s="4"/>
-    </row>
-    <row r="79" spans="2:2" ht="20" customHeight="1">
-      <c r="B79" s="4"/>
-    </row>
-    <row r="80" spans="2:2" ht="20" customHeight="1">
-      <c r="B80" s="4"/>
-    </row>
-    <row r="81" spans="2:2" ht="20" customHeight="1">
-      <c r="B81" s="4"/>
-    </row>
-    <row r="82" spans="2:2" ht="20" customHeight="1">
-      <c r="B82" s="4"/>
-    </row>
-    <row r="83" spans="2:2" ht="20" customHeight="1">
-      <c r="B83" s="4"/>
-    </row>
-    <row r="84" spans="2:2" ht="20" customHeight="1">
-      <c r="B84" s="4"/>
-    </row>
-    <row r="85" spans="2:2" ht="20" customHeight="1">
-      <c r="B85" s="4"/>
-    </row>
-    <row r="86" spans="2:2" ht="20" customHeight="1">
-      <c r="B86" s="4"/>
-    </row>
-    <row r="87" spans="2:2" ht="20" customHeight="1">
-      <c r="B87" s="4"/>
-    </row>
-    <row r="88" spans="2:2" ht="20" customHeight="1">
-      <c r="B88" s="4"/>
-    </row>
-    <row r="89" spans="2:2" ht="20" customHeight="1">
-      <c r="B89" s="4"/>
-    </row>
-    <row r="90" spans="2:2" ht="20" customHeight="1">
-      <c r="B90" s="4"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:4" ht="17">
+      <c r="A28" s="42"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="1:4" ht="20" customHeight="1">
+      <c r="B29" s="41"/>
+    </row>
+    <row r="30" spans="1:4" ht="20" customHeight="1">
+      <c r="B30" s="41"/>
+    </row>
+    <row r="31" spans="1:4" ht="20" customHeight="1">
+      <c r="B31" s="41"/>
+    </row>
+    <row r="32" spans="1:4" ht="20" customHeight="1">
+      <c r="B32" s="41"/>
+    </row>
+    <row r="33" spans="2:2" ht="20" customHeight="1">
+      <c r="B33" s="41"/>
+    </row>
+    <row r="34" spans="2:2" ht="20" customHeight="1">
+      <c r="B34" s="41"/>
+    </row>
+    <row r="35" spans="2:2" ht="20" customHeight="1">
+      <c r="B35" s="41"/>
+    </row>
+    <row r="36" spans="2:2" ht="20" customHeight="1">
+      <c r="B36" s="41"/>
+    </row>
+    <row r="37" spans="2:2" ht="20" customHeight="1">
+      <c r="B37" s="41"/>
+    </row>
+    <row r="38" spans="2:2" ht="20" customHeight="1">
+      <c r="B38" s="41"/>
+    </row>
+    <row r="39" spans="2:2" ht="20" customHeight="1">
+      <c r="B39" s="41"/>
+    </row>
+    <row r="40" spans="2:2" ht="20" customHeight="1">
+      <c r="B40" s="41"/>
+    </row>
+    <row r="41" spans="2:2" ht="20" customHeight="1">
+      <c r="B41" s="41"/>
+    </row>
+    <row r="42" spans="2:2" ht="20" customHeight="1">
+      <c r="B42" s="41"/>
+    </row>
+    <row r="43" spans="2:2" ht="20" customHeight="1">
+      <c r="B43" s="41"/>
+    </row>
+    <row r="44" spans="2:2" ht="20" customHeight="1">
+      <c r="B44" s="41"/>
+    </row>
+    <row r="45" spans="2:2" ht="20" customHeight="1">
+      <c r="B45" s="41"/>
+    </row>
+    <row r="46" spans="2:2" ht="20" customHeight="1">
+      <c r="B46" s="41"/>
+    </row>
+    <row r="47" spans="2:2" ht="20" customHeight="1">
+      <c r="B47" s="41"/>
+    </row>
+    <row r="48" spans="2:2" ht="20" customHeight="1">
+      <c r="B48" s="41"/>
+    </row>
+    <row r="49" spans="2:2" ht="20" customHeight="1">
+      <c r="B49" s="41"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D28">
+    <sortState ref="A2:D27">
+      <sortCondition sortBy="fontColor" ref="A1:A27" dxfId="1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -14067,10 +15230,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表4" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.140625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -14082,737 +15245,449 @@
   <sheetData>
     <row r="1" spans="2:5" ht="20" customHeight="1">
       <c r="B1" s="24" t="s">
-        <v>253</v>
+        <v>166</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>772</v>
+        <v>616</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>773</v>
+        <v>617</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>774</v>
+        <v>618</v>
       </c>
     </row>
     <row r="2" spans="2:5" ht="20" customHeight="1">
-      <c r="B2" s="5" t="s">
-        <v>254</v>
+      <c r="B2" s="9" t="s">
+        <v>171</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>255</v>
+        <v>717</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="20" customHeight="1">
-      <c r="B3" s="27" t="s">
-        <v>257</v>
+      <c r="B3" s="9" t="s">
+        <v>718</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>258</v>
+        <v>719</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="20" customHeight="1">
-      <c r="B4" s="5" t="s">
-        <v>263</v>
+      <c r="B4" s="9" t="s">
+        <v>720</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>264</v>
+        <v>721</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20" customHeight="1">
-      <c r="B5" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>267</v>
+      <c r="B5" s="33" t="s">
+        <v>621</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="20" customHeight="1">
-      <c r="B6" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>274</v>
+      <c r="B6" s="33" t="s">
+        <v>622</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="20" customHeight="1">
-      <c r="B7" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>782</v>
+      <c r="B7" s="34" t="s">
+        <v>631</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="20" customHeight="1">
-      <c r="B8" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>286</v>
+      <c r="B8" s="34" t="s">
+        <v>632</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="20" customHeight="1">
-      <c r="B9" s="5" t="s">
-        <v>301</v>
+      <c r="B9" s="33" t="s">
+        <v>652</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>302</v>
+        <v>656</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="20" customHeight="1">
-      <c r="B10" s="5" t="s">
-        <v>305</v>
+      <c r="B10" s="33" t="s">
+        <v>643</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>306</v>
+        <v>657</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="20" customHeight="1">
-      <c r="B11" s="5" t="s">
-        <v>309</v>
+      <c r="B11" s="33" t="s">
+        <v>194</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>310</v>
+        <v>655</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="20" customHeight="1">
-      <c r="B12" s="5" t="s">
-        <v>312</v>
+      <c r="B12" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>313</v>
+        <v>649</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="20" customHeight="1">
-      <c r="B13" s="5" t="s">
-        <v>324</v>
+      <c r="B13" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>325</v>
+        <v>637</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="20" customHeight="1">
-      <c r="B14" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>331</v>
+      <c r="B14" s="35" t="s">
+        <v>627</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="20" customHeight="1">
-      <c r="B15" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>339</v>
+      <c r="B15" s="36" t="s">
+        <v>629</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="20" customHeight="1">
-      <c r="B16" s="5" t="s">
-        <v>346</v>
+      <c r="B16" s="9" t="s">
+        <v>167</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>347</v>
+        <v>650</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="20" customHeight="1">
-      <c r="B17" s="5" t="s">
-        <v>259</v>
+      <c r="B17" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>260</v>
+        <v>625</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="20" customHeight="1">
-      <c r="B18" s="5" t="s">
-        <v>261</v>
+      <c r="B18" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>262</v>
+        <v>626</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="20" customHeight="1">
-      <c r="B19" s="5" t="s">
-        <v>268</v>
+      <c r="B19" s="9" t="s">
+        <v>623</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>269</v>
+        <v>624</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="20" customHeight="1">
-      <c r="B20" s="5" t="s">
-        <v>271</v>
+      <c r="B20" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>272</v>
+        <v>641</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="20" customHeight="1">
-      <c r="B21" s="5" t="s">
-        <v>275</v>
+      <c r="B21" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>276</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="20" customHeight="1">
-      <c r="B22" s="5" t="s">
-        <v>281</v>
+      <c r="B22" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>282</v>
+        <v>639</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="20" customHeight="1">
-      <c r="B23" s="5" t="s">
-        <v>283</v>
+      <c r="B23" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>284</v>
+        <v>642</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="20" customHeight="1">
-      <c r="B24" s="5" t="s">
-        <v>287</v>
+      <c r="B24" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>288</v>
+        <v>640</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="20" customHeight="1">
-      <c r="B25" s="5" t="s">
-        <v>291</v>
+      <c r="B25" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>292</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="20" customHeight="1">
-      <c r="B26" s="5" t="s">
-        <v>295</v>
+      <c r="B26" s="31" t="s">
+        <v>651</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>296</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="20" customHeight="1">
-      <c r="B27" s="5" t="s">
-        <v>303</v>
+      <c r="B27" s="31" t="s">
+        <v>173</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>304</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="20" customHeight="1">
-      <c r="B28" s="5" t="s">
-        <v>316</v>
+      <c r="B28" s="31" t="s">
+        <v>175</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>317</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="20" customHeight="1">
-      <c r="B29" s="5" t="s">
-        <v>323</v>
+      <c r="B29" s="31" t="s">
+        <v>177</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>799</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="20" customHeight="1">
-      <c r="B30" s="5" t="s">
-        <v>326</v>
+      <c r="B30" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>327</v>
+        <v>644</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="20" customHeight="1">
-      <c r="B31" s="5" t="s">
-        <v>332</v>
+      <c r="B31" s="8" t="s">
+        <v>186</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>333</v>
+        <v>647</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="20" customHeight="1">
-      <c r="B32" s="5" t="s">
-        <v>344</v>
+      <c r="B32" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="20" customHeight="1">
-      <c r="B33" s="5" t="s">
-        <v>350</v>
+        <v>638</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="20" customHeight="1">
+      <c r="B33" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="20" customHeight="1">
-      <c r="B34" s="38" t="s">
-        <v>790</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="20" customHeight="1">
-      <c r="B35" s="38" t="s">
-        <v>792</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" ht="20" customHeight="1">
-      <c r="B36" s="36" t="s">
-        <v>278</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" ht="20" customHeight="1">
-      <c r="B37" s="36" t="s">
-        <v>289</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" ht="20" customHeight="1">
-      <c r="B38" s="36" t="s">
-        <v>307</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" ht="20" customHeight="1">
-      <c r="B39" s="36" t="s">
-        <v>314</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" ht="20" customHeight="1">
-      <c r="B40" s="36" t="s">
-        <v>320</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="20" customHeight="1">
+      <c r="B34" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="20" customHeight="1">
+      <c r="B35" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="20" customHeight="1">
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" ht="20" customHeight="1">
+      <c r="B37" s="17" t="s">
+        <v>664</v>
+      </c>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" ht="20" customHeight="1">
+      <c r="A38" t="s">
+        <v>666</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" ht="20" customHeight="1">
+      <c r="A39" t="s">
+        <v>668</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>669</v>
+      </c>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" ht="20" customHeight="1">
+      <c r="B40" s="30" t="s">
+        <v>670</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" ht="20" customHeight="1">
-      <c r="B41" s="35" t="s">
-        <v>777</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" ht="20" customHeight="1">
-      <c r="B42" s="35" t="s">
-        <v>778</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" ht="20" customHeight="1">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="20" customHeight="1">
+      <c r="B41" s="39" t="s">
+        <v>673</v>
+      </c>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" ht="20" customHeight="1">
+      <c r="B42" s="37" t="s">
+        <v>672</v>
+      </c>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" ht="20" customHeight="1">
+      <c r="A43" t="s">
+        <v>674</v>
+      </c>
       <c r="B43" s="37" t="s">
-        <v>788</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" ht="20" customHeight="1">
+        <v>675</v>
+      </c>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" ht="20" customHeight="1">
+      <c r="A44" t="s">
+        <v>676</v>
+      </c>
       <c r="B44" s="37" t="s">
-        <v>789</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" ht="20" customHeight="1">
-      <c r="B45" s="35" t="s">
-        <v>812</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" ht="20" customHeight="1">
-      <c r="B46" s="35" t="s">
-        <v>803</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" ht="20" customHeight="1">
-      <c r="B47" s="35" t="s">
-        <v>348</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" ht="20" customHeight="1">
-      <c r="B48" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" ht="20" customHeight="1">
-      <c r="B49" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" ht="20" customHeight="1">
-      <c r="B50" s="39" t="s">
-        <v>784</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" ht="20" customHeight="1">
-      <c r="B51" s="40" t="s">
-        <v>786</v>
-      </c>
-      <c r="C51" s="29" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" ht="20" customHeight="1">
-      <c r="B52" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" ht="20" customHeight="1">
-      <c r="B53" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" ht="20" customHeight="1">
-      <c r="B54" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" ht="20" customHeight="1">
-      <c r="B55" s="9" t="s">
-        <v>779</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" ht="20" customHeight="1">
-      <c r="B56" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" ht="20" customHeight="1">
-      <c r="B57" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" ht="20" customHeight="1">
-      <c r="B58" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" ht="20" customHeight="1">
-      <c r="B59" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" ht="20" customHeight="1">
-      <c r="B60" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" ht="20" customHeight="1">
-      <c r="B61" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" ht="20" customHeight="1">
-      <c r="B62" s="33" t="s">
-        <v>811</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" ht="20" customHeight="1">
-      <c r="B63" s="33" t="s">
-        <v>293</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" ht="20" customHeight="1">
-      <c r="B64" s="33" t="s">
-        <v>297</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="20" customHeight="1">
-      <c r="B65" s="33" t="s">
-        <v>299</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="20" customHeight="1">
-      <c r="B66" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="20" customHeight="1">
-      <c r="B67" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="20" customHeight="1">
-      <c r="B68" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="20" customHeight="1">
-      <c r="B69" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="20" customHeight="1">
-      <c r="B70" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="20" customHeight="1">
-      <c r="B71" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="20" customHeight="1">
-      <c r="C72" s="4"/>
-    </row>
-    <row r="73" spans="1:3" ht="20" customHeight="1">
-      <c r="B73" s="17" t="s">
-        <v>824</v>
-      </c>
-      <c r="C73" s="4"/>
-    </row>
-    <row r="74" spans="1:3" ht="20" customHeight="1">
-      <c r="A74" t="s">
-        <v>826</v>
-      </c>
-      <c r="B74" s="42" t="s">
-        <v>827</v>
-      </c>
-      <c r="C74" s="4"/>
-    </row>
-    <row r="75" spans="1:3" ht="20" customHeight="1">
-      <c r="A75" t="s">
-        <v>828</v>
-      </c>
-      <c r="B75" s="42" t="s">
-        <v>829</v>
-      </c>
-      <c r="C75" s="4"/>
-    </row>
-    <row r="76" spans="1:3" ht="20" customHeight="1">
-      <c r="B76" s="32" t="s">
-        <v>830</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="20" customHeight="1">
-      <c r="B77" s="43" t="s">
-        <v>833</v>
-      </c>
-      <c r="C77" s="4"/>
-    </row>
-    <row r="78" spans="1:3" ht="20" customHeight="1">
-      <c r="B78" s="41" t="s">
-        <v>832</v>
-      </c>
-      <c r="C78" s="4"/>
-    </row>
-    <row r="79" spans="1:3" ht="20" customHeight="1">
-      <c r="A79" t="s">
-        <v>834</v>
-      </c>
-      <c r="B79" s="41" t="s">
-        <v>835</v>
-      </c>
-      <c r="C79" s="4"/>
-    </row>
-    <row r="80" spans="1:3" ht="20" customHeight="1">
-      <c r="A80" t="s">
-        <v>836</v>
-      </c>
-      <c r="B80" s="41" t="s">
-        <v>837</v>
-      </c>
-      <c r="C80" s="4"/>
-    </row>
-    <row r="81" spans="1:3" ht="20" customHeight="1">
-      <c r="A81" t="s">
-        <v>838</v>
-      </c>
-      <c r="B81" s="41" t="s">
-        <v>839</v>
-      </c>
-      <c r="C81" s="4"/>
-    </row>
-    <row r="82" spans="1:3" ht="20" customHeight="1">
-      <c r="B82" s="41" t="s">
-        <v>840</v>
-      </c>
-      <c r="C82" s="4"/>
-    </row>
-    <row r="83" spans="1:3" ht="20" customHeight="1">
-      <c r="B83" s="41" t="s">
-        <v>841</v>
-      </c>
-      <c r="C83" s="4"/>
-    </row>
-    <row r="84" spans="1:3" ht="20" customHeight="1">
-      <c r="B84" s="41" t="s">
-        <v>842</v>
-      </c>
-      <c r="C84" s="4"/>
-    </row>
-    <row r="85" spans="1:3" ht="20" customHeight="1">
-      <c r="B85" s="41" t="s">
-        <v>843</v>
-      </c>
-      <c r="C85" s="4"/>
-    </row>
-    <row r="86" spans="1:3" ht="20" customHeight="1">
-      <c r="B86" s="41" t="s">
-        <v>844</v>
-      </c>
-      <c r="C86" s="4"/>
-    </row>
-    <row r="87" spans="1:3" ht="20" customHeight="1">
-      <c r="A87" t="s">
-        <v>845</v>
-      </c>
-      <c r="B87" s="41" t="s">
-        <v>846</v>
-      </c>
-      <c r="C87" s="4"/>
-    </row>
-    <row r="88" spans="1:3" ht="20" customHeight="1">
-      <c r="A88" t="s">
-        <v>847</v>
-      </c>
-      <c r="B88" s="41" t="s">
-        <v>848</v>
-      </c>
-      <c r="C88" s="4"/>
-    </row>
-    <row r="89" spans="1:3" ht="20" customHeight="1">
-      <c r="B89" s="41" t="s">
-        <v>849</v>
-      </c>
-      <c r="C89" s="4"/>
-    </row>
-    <row r="90" spans="1:3" ht="20" customHeight="1">
-      <c r="B90" s="41" t="s">
-        <v>850</v>
-      </c>
-      <c r="C90" s="4"/>
-    </row>
-    <row r="91" spans="1:3" ht="20" customHeight="1">
-      <c r="B91" s="41" t="s">
-        <v>851</v>
-      </c>
-      <c r="C91" s="4"/>
-    </row>
-    <row r="92" spans="1:3" ht="20" customHeight="1">
-      <c r="C92" s="4"/>
-    </row>
-    <row r="93" spans="1:3" ht="20" customHeight="1">
-      <c r="C93" s="4"/>
-    </row>
-    <row r="94" spans="1:3" ht="20" customHeight="1">
-      <c r="C94" s="4"/>
-    </row>
-    <row r="95" spans="1:3" ht="20" customHeight="1">
-      <c r="C95" s="4"/>
-    </row>
-    <row r="96" spans="1:3" ht="20" customHeight="1">
-      <c r="C96" s="4"/>
+        <v>677</v>
+      </c>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:3" ht="20" customHeight="1">
+      <c r="A45" t="s">
+        <v>678</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>679</v>
+      </c>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:3" ht="20" customHeight="1">
+      <c r="B46" s="37" t="s">
+        <v>680</v>
+      </c>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:3" ht="20" customHeight="1">
+      <c r="B47" s="37" t="s">
+        <v>681</v>
+      </c>
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:3" ht="20" customHeight="1">
+      <c r="B48" s="37" t="s">
+        <v>682</v>
+      </c>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="1:3" ht="20" customHeight="1">
+      <c r="B49" s="37" t="s">
+        <v>683</v>
+      </c>
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:3" ht="20" customHeight="1">
+      <c r="B50" s="37" t="s">
+        <v>684</v>
+      </c>
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="1:3" ht="20" customHeight="1">
+      <c r="A51" t="s">
+        <v>685</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>686</v>
+      </c>
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="1:3" ht="20" customHeight="1">
+      <c r="A52" t="s">
+        <v>687</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>688</v>
+      </c>
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="1:3" ht="20" customHeight="1">
+      <c r="B53" s="37" t="s">
+        <v>689</v>
+      </c>
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="1:3" ht="20" customHeight="1">
+      <c r="B54" s="37" t="s">
+        <v>690</v>
+      </c>
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="1:3" ht="20" customHeight="1">
+      <c r="B55" s="37" t="s">
+        <v>691</v>
+      </c>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:3" ht="20" customHeight="1">
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="1:3" ht="20" customHeight="1">
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3" ht="20" customHeight="1">
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="1:3" ht="20" customHeight="1">
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="1:3" ht="20" customHeight="1">
+      <c r="C60" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:E96">
-    <sortState ref="B2:E97">
-      <sortCondition sortBy="fontColor" ref="B1:B97" dxfId="0"/>
+  <autoFilter ref="B1:E60">
+    <sortState ref="B2:E64">
+      <sortCondition sortBy="fontColor" ref="B1:B64" dxfId="8"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -14843,94 +15718,94 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>352</v>
+        <v>196</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>776</v>
+        <v>620</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24" t="s">
-        <v>775</v>
+        <v>619</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" t="s">
-        <v>354</v>
+        <v>198</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>355</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" t="s">
-        <v>358</v>
+        <v>202</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>359</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" t="s">
-        <v>364</v>
+        <v>208</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>365</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" t="s">
-        <v>368</v>
+        <v>212</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>369</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" t="s">
-        <v>372</v>
+        <v>216</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>373</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" t="s">
-        <v>376</v>
+        <v>220</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>377</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" t="s">
-        <v>380</v>
+        <v>224</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>381</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" t="s">
-        <v>384</v>
+        <v>228</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>385</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" t="s">
-        <v>388</v>
+        <v>232</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>389</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
@@ -14943,410 +15818,410 @@
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" t="s">
-        <v>394</v>
+        <v>238</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>395</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" t="s">
-        <v>398</v>
+        <v>242</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" t="s">
-        <v>401</v>
+        <v>245</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>402</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" t="s">
-        <v>405</v>
+        <v>249</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>406</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
       <c r="A17" t="s">
-        <v>409</v>
+        <v>253</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>410</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
       <c r="A18" t="s">
-        <v>413</v>
+        <v>257</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>414</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
       <c r="A19" t="s">
-        <v>417</v>
+        <v>261</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>418</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20" customHeight="1">
       <c r="A20" t="s">
-        <v>421</v>
+        <v>265</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>422</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20" customHeight="1">
       <c r="A21" t="s">
-        <v>425</v>
+        <v>269</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>426</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="20" customHeight="1">
       <c r="A22" t="s">
-        <v>429</v>
+        <v>273</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>430</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="20" customHeight="1">
       <c r="A23" t="s">
-        <v>433</v>
+        <v>277</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>434</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="20" customHeight="1">
       <c r="A24" t="s">
-        <v>437</v>
+        <v>281</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>434</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="20" customHeight="1">
       <c r="A25" t="s">
-        <v>440</v>
+        <v>284</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="20" customHeight="1">
       <c r="A26" t="s">
-        <v>443</v>
+        <v>287</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>444</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="20" customHeight="1">
       <c r="A27" t="s">
-        <v>447</v>
+        <v>291</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>448</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="20" customHeight="1">
       <c r="A28" t="s">
-        <v>451</v>
+        <v>295</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>452</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="20" customHeight="1">
       <c r="A29" t="s">
-        <v>455</v>
+        <v>299</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>456</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="20" customHeight="1">
       <c r="A30" t="s">
-        <v>459</v>
+        <v>303</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>460</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="20" customHeight="1">
       <c r="A31" t="s">
-        <v>463</v>
+        <v>307</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>464</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="20" customHeight="1">
       <c r="A32" t="s">
-        <v>762</v>
+        <v>606</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>467</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="20" customHeight="1">
       <c r="A33" t="s">
-        <v>356</v>
+        <v>200</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>357</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="20" customHeight="1">
       <c r="A34" t="s">
-        <v>360</v>
+        <v>204</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>361</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="20" customHeight="1">
       <c r="A35" t="s">
-        <v>362</v>
+        <v>206</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>363</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="20" customHeight="1">
       <c r="A36" t="s">
-        <v>366</v>
+        <v>210</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>367</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="20" customHeight="1">
       <c r="A37" t="s">
-        <v>370</v>
+        <v>214</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>371</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="20" customHeight="1">
       <c r="A38" t="s">
-        <v>374</v>
+        <v>218</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>375</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="20" customHeight="1">
       <c r="A39" t="s">
-        <v>378</v>
+        <v>222</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>379</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="20" customHeight="1">
       <c r="A40" t="s">
-        <v>382</v>
+        <v>226</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>383</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="20" customHeight="1">
       <c r="A41" t="s">
-        <v>386</v>
+        <v>230</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>387</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="20" customHeight="1">
       <c r="A42" t="s">
-        <v>390</v>
+        <v>234</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>391</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="20" customHeight="1">
       <c r="A43" t="s">
-        <v>392</v>
+        <v>236</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>393</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="20" customHeight="1">
       <c r="A44" t="s">
-        <v>396</v>
+        <v>240</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>397</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="20" customHeight="1">
       <c r="A45" t="s">
-        <v>399</v>
+        <v>243</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>400</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="20" customHeight="1">
       <c r="A46" t="s">
-        <v>403</v>
+        <v>247</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>404</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="20" customHeight="1">
       <c r="A47" t="s">
-        <v>407</v>
+        <v>251</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>408</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="20" customHeight="1">
       <c r="A48" t="s">
-        <v>411</v>
+        <v>255</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>412</v>
+        <v>256</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="20" customHeight="1">
       <c r="A49" t="s">
-        <v>415</v>
+        <v>259</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>416</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="20" customHeight="1">
       <c r="A50" t="s">
-        <v>419</v>
+        <v>263</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="20" customHeight="1">
       <c r="A51" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>424</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="20" customHeight="1">
       <c r="A52" t="s">
-        <v>427</v>
+        <v>271</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>428</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="20" customHeight="1">
       <c r="A53" t="s">
-        <v>431</v>
+        <v>275</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>432</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="20" customHeight="1">
       <c r="A54" t="s">
-        <v>435</v>
+        <v>279</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>436</v>
+        <v>280</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="20" customHeight="1">
       <c r="A55" t="s">
-        <v>438</v>
+        <v>282</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>439</v>
+        <v>283</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="20" customHeight="1">
       <c r="A56" t="s">
-        <v>441</v>
+        <v>285</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>442</v>
+        <v>286</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="20" customHeight="1">
       <c r="A57" t="s">
-        <v>445</v>
+        <v>289</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>446</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="20" customHeight="1">
       <c r="A58" t="s">
-        <v>449</v>
+        <v>293</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>450</v>
+        <v>294</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="20" customHeight="1">
       <c r="A59" t="s">
-        <v>453</v>
+        <v>297</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>454</v>
+        <v>298</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="20" customHeight="1">
       <c r="A60" t="s">
-        <v>457</v>
+        <v>301</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>458</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="20" customHeight="1">
       <c r="A61" t="s">
-        <v>461</v>
+        <v>305</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>462</v>
+        <v>306</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="20" customHeight="1">
       <c r="A62" t="s">
-        <v>465</v>
+        <v>309</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>466</v>
+        <v>310</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="20" customHeight="1">
       <c r="A63" t="s">
-        <v>468</v>
+        <v>312</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>469</v>
+        <v>313</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="20" customHeight="1">
@@ -15457,472 +16332,472 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>470</v>
+        <v>314</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>353</v>
+        <v>197</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>471</v>
+        <v>315</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>472</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" t="s">
-        <v>354</v>
+        <v>198</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>355</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" t="s">
-        <v>475</v>
+        <v>319</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>476</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" t="s">
-        <v>479</v>
+        <v>323</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>771</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" t="s">
-        <v>482</v>
+        <v>326</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>483</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" t="s">
-        <v>486</v>
+        <v>330</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>487</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" t="s">
-        <v>490</v>
+        <v>334</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>491</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" t="s">
-        <v>494</v>
+        <v>338</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>767</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" t="s">
-        <v>497</v>
+        <v>341</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>498</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" t="s">
-        <v>501</v>
+        <v>345</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>768</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" t="s">
-        <v>504</v>
+        <v>348</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>505</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" t="s">
-        <v>508</v>
+        <v>352</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>509</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" t="s">
-        <v>512</v>
+        <v>356</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>513</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" t="s">
-        <v>516</v>
+        <v>360</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>517</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" t="s">
-        <v>520</v>
+        <v>364</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>521</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" t="s">
-        <v>522</v>
+        <v>366</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>523</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
       <c r="A17" t="s">
-        <v>526</v>
+        <v>370</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>527</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
       <c r="A18" t="s">
-        <v>530</v>
+        <v>374</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>531</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
       <c r="A19" t="s">
-        <v>534</v>
+        <v>378</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>535</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20" customHeight="1">
       <c r="A20" t="s">
-        <v>538</v>
+        <v>382</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>539</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20" customHeight="1">
       <c r="A21" t="s">
-        <v>542</v>
+        <v>386</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>543</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="20" customHeight="1">
       <c r="A22" t="s">
-        <v>546</v>
+        <v>390</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>547</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="20" customHeight="1">
       <c r="A23" t="s">
-        <v>550</v>
+        <v>394</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>551</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="20" customHeight="1">
       <c r="A24" t="s">
-        <v>554</v>
+        <v>398</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>555</v>
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="20" customHeight="1">
       <c r="A25" t="s">
-        <v>558</v>
+        <v>402</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>222</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="20" customHeight="1">
       <c r="A26" t="s">
-        <v>561</v>
+        <v>405</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>562</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="20" customHeight="1">
       <c r="A27" t="s">
-        <v>565</v>
+        <v>409</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>566</v>
+        <v>410</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="20" customHeight="1">
       <c r="A28" t="s">
-        <v>569</v>
+        <v>413</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>570</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="20" customHeight="1">
       <c r="A29" t="s">
-        <v>573</v>
+        <v>417</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>574</v>
+        <v>418</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="20" customHeight="1">
       <c r="A30" t="s">
-        <v>577</v>
+        <v>421</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>578</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="20" customHeight="1">
       <c r="A31" t="s">
-        <v>473</v>
+        <v>317</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>474</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="20" customHeight="1">
       <c r="A32" t="s">
-        <v>477</v>
+        <v>321</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>478</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="20" customHeight="1">
       <c r="A33" t="s">
-        <v>480</v>
+        <v>324</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>481</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="20" customHeight="1">
       <c r="A34" t="s">
-        <v>484</v>
+        <v>328</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>485</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="20" customHeight="1">
       <c r="A35" t="s">
-        <v>488</v>
+        <v>332</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>489</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="20" customHeight="1">
       <c r="A36" t="s">
-        <v>492</v>
+        <v>336</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>493</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="20" customHeight="1">
       <c r="A37" t="s">
-        <v>495</v>
+        <v>339</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>496</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="20" customHeight="1">
       <c r="A38" t="s">
-        <v>499</v>
+        <v>343</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>500</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="20" customHeight="1">
       <c r="A39" t="s">
-        <v>502</v>
+        <v>346</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>503</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="20" customHeight="1">
       <c r="A40" t="s">
-        <v>506</v>
+        <v>350</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>507</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="20" customHeight="1">
       <c r="A41" t="s">
-        <v>510</v>
+        <v>354</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>511</v>
+        <v>355</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="20" customHeight="1">
       <c r="A42" t="s">
-        <v>514</v>
+        <v>358</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>515</v>
+        <v>359</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="20" customHeight="1">
       <c r="A43" t="s">
-        <v>518</v>
+        <v>362</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>519</v>
+        <v>363</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="20" customHeight="1">
       <c r="A44" t="s">
-        <v>769</v>
+        <v>613</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>770</v>
+        <v>614</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="20" customHeight="1">
       <c r="A45" t="s">
-        <v>524</v>
+        <v>368</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>525</v>
+        <v>369</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="20" customHeight="1">
       <c r="A46" t="s">
-        <v>528</v>
+        <v>372</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>529</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="20" customHeight="1">
       <c r="A47" t="s">
-        <v>532</v>
+        <v>376</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>533</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="20" customHeight="1">
       <c r="A48" t="s">
-        <v>536</v>
+        <v>380</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>537</v>
+        <v>381</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="20" customHeight="1">
       <c r="A49" s="20" t="s">
-        <v>540</v>
+        <v>384</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>541</v>
+        <v>385</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="20" customHeight="1">
       <c r="A50" s="20" t="s">
-        <v>544</v>
+        <v>388</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>545</v>
+        <v>389</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="20" customHeight="1">
       <c r="A51" s="20" t="s">
-        <v>548</v>
+        <v>392</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>549</v>
+        <v>393</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="20" customHeight="1">
       <c r="A52" s="20" t="s">
-        <v>552</v>
+        <v>396</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>553</v>
+        <v>397</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="20" customHeight="1">
       <c r="A53" s="20" t="s">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>557</v>
+        <v>401</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="20" customHeight="1">
       <c r="A54" s="20" t="s">
-        <v>559</v>
+        <v>403</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>560</v>
+        <v>404</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="20" customHeight="1">
       <c r="A55" s="20" t="s">
-        <v>563</v>
+        <v>407</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>564</v>
+        <v>408</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="20" customHeight="1">
       <c r="A56" s="20" t="s">
-        <v>567</v>
+        <v>411</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>568</v>
+        <v>412</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="20" customHeight="1">
       <c r="A57" s="21" t="s">
-        <v>571</v>
+        <v>415</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>572</v>
+        <v>416</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="20" customHeight="1">
       <c r="A58" s="20" t="s">
-        <v>575</v>
+        <v>419</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>576</v>
+        <v>420</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="20" customHeight="1">
@@ -16051,416 +16926,416 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1">
       <c r="A1" s="22" t="s">
-        <v>579</v>
+        <v>423</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>580</v>
+        <v>424</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>581</v>
+        <v>425</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>582</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" t="s">
-        <v>583</v>
+        <v>427</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>584</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" t="s">
-        <v>587</v>
+        <v>431</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>588</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" t="s">
-        <v>591</v>
+        <v>435</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>592</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" t="s">
-        <v>595</v>
+        <v>439</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>596</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" t="s">
-        <v>599</v>
+        <v>443</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>600</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" t="s">
-        <v>603</v>
+        <v>447</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>604</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" t="s">
-        <v>607</v>
+        <v>451</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>608</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" t="s">
-        <v>611</v>
+        <v>455</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>612</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" t="s">
-        <v>615</v>
+        <v>459</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>616</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" t="s">
-        <v>619</v>
+        <v>463</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>620</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" t="s">
-        <v>623</v>
+        <v>467</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>624</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" t="s">
-        <v>626</v>
+        <v>470</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>627</v>
+        <v>471</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" t="s">
-        <v>630</v>
+        <v>474</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>631</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" t="s">
-        <v>634</v>
+        <v>478</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>635</v>
+        <v>479</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" t="s">
-        <v>638</v>
+        <v>482</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>639</v>
+        <v>483</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
       <c r="A17" t="s">
-        <v>642</v>
+        <v>486</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>643</v>
+        <v>487</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
       <c r="A18" t="s">
-        <v>646</v>
+        <v>490</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>647</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
       <c r="A19" t="s">
-        <v>650</v>
+        <v>494</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>651</v>
+        <v>495</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20" customHeight="1">
       <c r="A20" t="s">
-        <v>654</v>
+        <v>498</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>655</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20" customHeight="1">
       <c r="A21" t="s">
-        <v>658</v>
+        <v>502</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>456</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="20" customHeight="1">
       <c r="A22" t="s">
-        <v>661</v>
+        <v>505</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>662</v>
+        <v>506</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="20" customHeight="1">
       <c r="A23" t="s">
-        <v>665</v>
+        <v>509</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>666</v>
+        <v>510</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="20" customHeight="1">
       <c r="A24" t="s">
-        <v>669</v>
+        <v>513</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>670</v>
+        <v>514</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="20" customHeight="1">
       <c r="A25" t="s">
-        <v>673</v>
+        <v>517</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>674</v>
+        <v>518</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="20" customHeight="1">
       <c r="A26" t="s">
-        <v>677</v>
+        <v>521</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>678</v>
+        <v>522</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="20" customHeight="1">
       <c r="A27" t="s">
-        <v>585</v>
+        <v>429</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>586</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="20" customHeight="1">
       <c r="A28" t="s">
-        <v>589</v>
+        <v>433</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>590</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="20" customHeight="1">
       <c r="A29" t="s">
-        <v>593</v>
+        <v>437</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>594</v>
+        <v>438</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="20" customHeight="1">
       <c r="A30" t="s">
-        <v>597</v>
+        <v>441</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>598</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="20" customHeight="1">
       <c r="A31" t="s">
-        <v>601</v>
+        <v>445</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>602</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="20" customHeight="1">
       <c r="A32" t="s">
-        <v>605</v>
+        <v>449</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>606</v>
+        <v>450</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="20" customHeight="1">
       <c r="A33" t="s">
-        <v>609</v>
+        <v>453</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>610</v>
+        <v>454</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="20" customHeight="1">
       <c r="A34" t="s">
-        <v>613</v>
+        <v>457</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>614</v>
+        <v>458</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="20" customHeight="1">
       <c r="A35" t="s">
-        <v>617</v>
+        <v>461</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>618</v>
+        <v>462</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="20" customHeight="1">
       <c r="A36" t="s">
-        <v>621</v>
+        <v>465</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>622</v>
+        <v>466</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="20" customHeight="1">
       <c r="A37" t="s">
-        <v>486</v>
+        <v>330</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>625</v>
+        <v>469</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="20" customHeight="1">
       <c r="A38" t="s">
-        <v>628</v>
+        <v>472</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>629</v>
+        <v>473</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="20" customHeight="1">
       <c r="A39" t="s">
-        <v>632</v>
+        <v>476</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>633</v>
+        <v>477</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="20" customHeight="1">
       <c r="A40" t="s">
-        <v>636</v>
+        <v>480</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>637</v>
+        <v>481</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="20" customHeight="1">
       <c r="A41" t="s">
-        <v>640</v>
+        <v>484</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>641</v>
+        <v>485</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="20" customHeight="1">
       <c r="A42" t="s">
-        <v>644</v>
+        <v>488</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>645</v>
+        <v>489</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="20" customHeight="1">
       <c r="A43" t="s">
-        <v>648</v>
+        <v>492</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>649</v>
+        <v>493</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="20" customHeight="1">
       <c r="A44" t="s">
-        <v>652</v>
+        <v>496</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>653</v>
+        <v>497</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="20" customHeight="1">
       <c r="A45" t="s">
-        <v>656</v>
+        <v>500</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>657</v>
+        <v>501</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="20" customHeight="1">
       <c r="A46" t="s">
-        <v>659</v>
+        <v>503</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>660</v>
+        <v>504</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="20" customHeight="1">
       <c r="A47" t="s">
-        <v>663</v>
+        <v>507</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>664</v>
+        <v>508</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="20" customHeight="1">
       <c r="A48" t="s">
-        <v>667</v>
+        <v>511</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>668</v>
+        <v>512</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="20" customHeight="1">
       <c r="A49" s="20" t="s">
-        <v>671</v>
+        <v>515</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>672</v>
+        <v>516</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="20" customHeight="1">
       <c r="A50" s="20" t="s">
-        <v>675</v>
+        <v>519</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>676</v>
+        <v>520</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="20" customHeight="1">
       <c r="A51" s="20" t="s">
-        <v>679</v>
+        <v>523</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>680</v>
+        <v>524</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="20" customHeight="1">
@@ -16609,336 +17484,336 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1">
       <c r="A1" s="22" t="s">
-        <v>681</v>
+        <v>525</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>682</v>
+        <v>526</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>683</v>
+        <v>527</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>684</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" t="s">
-        <v>685</v>
+        <v>529</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>686</v>
+        <v>530</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" t="s">
-        <v>689</v>
+        <v>533</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>690</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" t="s">
-        <v>693</v>
+        <v>537</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>694</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" t="s">
-        <v>697</v>
+        <v>541</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>698</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" t="s">
-        <v>701</v>
+        <v>545</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>702</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" t="s">
-        <v>705</v>
+        <v>549</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>706</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" t="s">
-        <v>709</v>
+        <v>553</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>710</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" t="s">
-        <v>713</v>
+        <v>557</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>714</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" t="s">
-        <v>716</v>
+        <v>560</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>717</v>
+        <v>561</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" t="s">
-        <v>720</v>
+        <v>564</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>721</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" t="s">
-        <v>724</v>
+        <v>568</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>725</v>
+        <v>569</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" t="s">
-        <v>728</v>
+        <v>572</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>729</v>
+        <v>573</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" t="s">
-        <v>732</v>
+        <v>576</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>733</v>
+        <v>577</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" t="s">
-        <v>735</v>
+        <v>579</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>736</v>
+        <v>580</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" t="s">
-        <v>739</v>
+        <v>583</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>740</v>
+        <v>584</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
       <c r="A17" t="s">
-        <v>743</v>
+        <v>587</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>744</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
       <c r="A18" t="s">
-        <v>746</v>
+        <v>590</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>763</v>
+        <v>607</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
       <c r="A19" t="s">
-        <v>749</v>
+        <v>593</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>750</v>
+        <v>594</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20" customHeight="1">
       <c r="A20" t="s">
-        <v>753</v>
+        <v>597</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>754</v>
+        <v>598</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20" customHeight="1">
       <c r="A21" t="s">
-        <v>757</v>
+        <v>601</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>758</v>
+        <v>602</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="20" customHeight="1">
       <c r="A22" t="s">
-        <v>687</v>
+        <v>531</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>688</v>
+        <v>532</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="20" customHeight="1">
       <c r="A23" t="s">
-        <v>691</v>
+        <v>535</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>692</v>
+        <v>536</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="20" customHeight="1">
       <c r="A24" t="s">
-        <v>695</v>
+        <v>539</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>696</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="20" customHeight="1">
       <c r="A25" t="s">
-        <v>699</v>
+        <v>543</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>700</v>
+        <v>544</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="20" customHeight="1">
       <c r="A26" t="s">
-        <v>703</v>
+        <v>547</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>704</v>
+        <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="20" customHeight="1">
       <c r="A27" t="s">
-        <v>707</v>
+        <v>551</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>708</v>
+        <v>552</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="20" customHeight="1">
       <c r="A28" t="s">
-        <v>711</v>
+        <v>555</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>712</v>
+        <v>556</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="20" customHeight="1">
       <c r="A29" t="s">
-        <v>715</v>
+        <v>559</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>764</v>
+        <v>608</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="20" customHeight="1">
       <c r="A30" t="s">
-        <v>718</v>
+        <v>562</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>719</v>
+        <v>563</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="20" customHeight="1">
       <c r="A31" t="s">
-        <v>722</v>
+        <v>566</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>723</v>
+        <v>567</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="20" customHeight="1">
       <c r="A32" t="s">
-        <v>726</v>
+        <v>570</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>727</v>
+        <v>571</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="20" customHeight="1">
       <c r="A33" t="s">
-        <v>730</v>
+        <v>574</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>731</v>
+        <v>575</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="20" customHeight="1">
       <c r="A34" t="s">
-        <v>734</v>
+        <v>578</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>765</v>
+        <v>609</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="20" customHeight="1">
       <c r="A35" t="s">
-        <v>737</v>
+        <v>581</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>738</v>
+        <v>582</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="20" customHeight="1">
       <c r="A36" t="s">
-        <v>741</v>
+        <v>585</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>742</v>
+        <v>586</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="20" customHeight="1">
       <c r="A37" t="s">
-        <v>745</v>
+        <v>589</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>766</v>
+        <v>610</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="20" customHeight="1">
       <c r="A38" t="s">
-        <v>747</v>
+        <v>591</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>748</v>
+        <v>592</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="20" customHeight="1">
       <c r="A39" t="s">
-        <v>751</v>
+        <v>595</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>752</v>
+        <v>596</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="20" customHeight="1">
       <c r="A40" t="s">
-        <v>755</v>
+        <v>599</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>756</v>
+        <v>600</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="20" customHeight="1">
       <c r="A41" t="s">
-        <v>759</v>
+        <v>603</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>760</v>
+        <v>604</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="20" customHeight="1">

--- a/TPO_听力_生词_1-2环境生态.xlsx
+++ b/TPO_听力_生词_1-2环境生态.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24920" windowHeight="15600" tabRatio="767" activeTab="2"/>
+    <workbookView xWindow="7280" yWindow="0" windowWidth="24920" windowHeight="15600" tabRatio="767"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'TPO10-5'!$B$1:$E$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TPO3-2'!$B$1:$C$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TPO9-3'!$A$1:$D$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TPO9-3'!$A$1:$D$31</definedName>
   </definedNames>
   <calcPr calcId="140000" calcMode="manual" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="746">
   <si>
     <t>3-2蜂鸟，</t>
   </si>
@@ -646,9 +646,6 @@
   </si>
   <si>
     <t>植被</t>
-  </si>
-  <si>
-    <t xml:space="preserve">precipitation </t>
   </si>
   <si>
     <t xml:space="preserve">nitrogen </t>
@@ -2738,15 +2735,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">drift </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>没有灌木生长的</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>v/n.堆,堆积(物);     v/n漂流(物)</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -2784,10 +2773,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>降水，降水量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>bush/shrub</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -2849,16 +2834,8 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>v.解冻，融雪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>v.繁荣， 兴旺</t>
     <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.冻原，苔原</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>previously 
@@ -2866,59 +2843,111 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>semiarid 
+arid</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">thaw </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">thrive </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tundra </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">penetrate </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">permafrost </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永冻层</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>permeate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">precipitation </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.冻原，苔原(地区)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.渗透；看透</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">impermeable </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.沉淀物；降水(量)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.渗透；弥漫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>permanent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>precipitate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.永久的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.促成；沉淀；猛摔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">a.不可渗透的
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>v.妨碍，干扰
 妨碍，干扰</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>semiarid 
-arid</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">thaw </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">thrive </t>
+    <t>n.解冻，融雪</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">tundra </t>
+    <t>√</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">penetrate </t>
+    <t>√</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>v.渗透；穿透</t>
+    <t>v/n.堆,堆积(物);     v/n漂流(物)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>drift 
+snowdrifts</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">permafrost </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>永冻层</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">a.不可渗透的
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.渗透</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>permeate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">impermeable 
-</t>
+    <t>etc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2929,7 +2958,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode=";;;"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3090,6 +3119,13 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -3172,7 +3208,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5135">
+  <cellStyleXfs count="5603">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -8310,8 +8346,476 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8409,8 +8913,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5135">
+  <cellStyles count="5603">
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -10978,6 +11491,240 @@
     <cellStyle name="超链接" xfId="5129" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5131" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5181" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5183" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5185" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5187" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5189" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5191" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5193" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5195" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5197" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5199" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5201" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5203" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5205" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5207" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5209" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5211" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5213" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5215" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5217" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5219" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5221" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5223" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5225" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5227" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5229" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5231" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5233" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5235" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5237" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5239" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5241" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5243" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5245" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5247" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5249" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5251" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5253" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5255" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5257" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5259" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5261" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5263" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5265" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5267" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5269" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5271" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5273" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5275" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5277" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5279" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5281" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5283" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5285" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5287" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5289" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5291" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5293" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5295" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5297" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5299" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5301" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5303" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5305" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5307" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5309" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5311" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5313" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5315" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5317" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5319" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5321" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5323" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5325" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5327" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5329" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5331" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5333" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5335" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5337" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5339" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5341" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5343" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5345" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5347" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5349" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5351" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5353" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5355" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5357" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5359" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5361" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5363" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5365" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5367" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5369" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5371" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5373" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5375" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5377" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5379" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5381" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5383" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5385" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5387" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5389" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5391" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5393" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5395" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5397" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5399" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5401" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5403" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5405" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5407" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5409" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5411" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5413" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5415" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5417" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5419" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5421" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5423" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5425" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5427" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5429" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5431" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5433" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5435" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5437" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5439" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5441" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5443" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5445" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5447" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5449" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5451" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5453" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5455" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5457" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5459" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5461" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5463" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5465" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5467" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5469" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5471" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5473" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5475" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5477" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5479" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5481" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5483" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5485" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5487" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5489" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5491" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5493" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5495" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5497" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5499" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5501" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5503" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5505" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5507" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5509" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5511" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5513" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5515" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5517" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5519" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5521" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5523" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5525" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5527" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5529" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5531" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5533" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5535" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5537" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5539" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5541" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5543" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5545" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5547" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5549" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5551" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5553" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5555" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5557" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5559" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5561" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5563" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5565" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5567" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5569" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5571" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5573" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5575" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5577" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5579" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5581" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5583" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5585" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5587" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5589" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5591" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5593" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5595" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5597" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5599" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5601" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
@@ -13544,40 +14291,244 @@
     <cellStyle name="访问过的超链接" xfId="5130" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5132" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5190" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5214" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5216" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5218" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5220" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5222" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5224" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5226" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5228" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5230" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5232" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5234" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5236" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5238" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5240" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5242" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5244" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5246" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5248" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5250" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5252" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5254" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5256" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5258" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5260" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5262" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5264" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5266" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5268" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5270" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5272" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5274" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5276" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5278" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5280" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5282" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5284" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5286" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5288" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5290" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5292" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5294" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5296" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5298" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5300" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5302" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5304" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5306" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5308" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5310" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5312" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5314" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5316" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5318" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5320" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5322" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5324" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5326" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5328" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5330" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5332" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5334" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5336" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5338" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5340" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5342" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5344" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5346" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5348" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5350" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5352" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5354" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5356" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5358" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5360" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5362" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5364" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5366" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5368" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5370" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5372" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5374" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5376" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5378" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5380" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5382" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5384" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5386" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5388" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5390" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5392" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5394" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5396" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5398" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5400" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5402" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5404" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5406" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5408" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5410" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5412" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5414" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5416" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5418" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5420" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5422" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5424" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5426" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5428" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5430" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5432" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5434" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5436" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5438" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5440" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5442" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5444" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5446" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5448" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5450" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5452" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5454" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5456" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5458" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5460" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5462" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5464" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5466" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5468" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5470" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5472" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5474" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5476" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5478" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5480" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5482" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5484" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5486" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5488" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5490" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5492" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5494" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5496" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5498" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5500" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5502" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5504" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5506" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5508" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5510" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5512" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5514" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5516" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5518" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5520" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5522" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5524" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5526" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5528" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5530" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5532" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5534" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5536" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5538" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5540" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5542" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5544" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5546" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5548" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5550" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5552" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5554" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5556" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5558" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5560" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5562" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5564" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5566" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5568" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5570" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5572" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5574" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5576" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5578" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5580" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5582" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5584" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5586" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5588" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5590" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5592" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5594" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5596" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5598" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5600" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5602" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF808080"/>
@@ -13585,27 +14536,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF808080"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF808080"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF808080"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -13943,8 +14874,8 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -13961,7 +14892,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D1" t="s">
         <v>77</v>
@@ -13975,36 +14906,44 @@
         <v>0</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>661</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" t="s">
+        <v>741</v>
+      </c>
+      <c r="E3" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -14497,7 +15436,7 @@
     <row r="52" spans="1:3" ht="20" customHeight="1">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C52" s="18"/>
     </row>
@@ -14842,7 +15781,7 @@
   </sheetData>
   <autoFilter ref="B1:C35">
     <sortState ref="B2:C34">
-      <sortCondition sortBy="fontColor" ref="B1:B34" dxfId="12"/>
+      <sortCondition sortBy="fontColor" ref="B1:B34" dxfId="2"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -14859,10 +15798,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表3" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.5703125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -14877,237 +15816,232 @@
         <v>151</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D1" s="43" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17">
-      <c r="A2" s="45" t="s">
-        <v>695</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>709</v>
+      <c r="A2" s="40" t="s">
+        <v>745</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" ht="17">
       <c r="A3" s="45" t="s">
-        <v>733</v>
+        <v>694</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>734</v>
+        <v>705</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:4" ht="34">
+    <row r="4" spans="1:4" ht="17">
       <c r="A4" s="48" t="s">
+        <v>731</v>
+      </c>
+      <c r="B4" s="46" t="s">
         <v>738</v>
       </c>
-      <c r="B4" s="46" t="s">
-        <v>735</v>
-      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" ht="17">
-      <c r="A5" s="48" t="s">
-        <v>737</v>
-      </c>
-      <c r="B5" s="46" t="s">
+      <c r="A5" s="45" t="s">
+        <v>725</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>726</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" ht="17">
+      <c r="A6" s="53" t="s">
+        <v>734</v>
+      </c>
+      <c r="B6" s="44" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17">
-      <c r="A6" s="45" t="s">
-        <v>731</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>732</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-    </row>
     <row r="7" spans="1:4" ht="17">
-      <c r="A7" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>707</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:4" ht="34">
-      <c r="A8" s="45" t="s">
-        <v>728</v>
+      <c r="A7" s="54" t="s">
+        <v>727</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17">
+      <c r="A8" s="53" t="s">
+        <v>724</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" ht="34">
-      <c r="A9" s="45" t="s">
-        <v>729</v>
+    <row r="9" spans="1:4" ht="17">
+      <c r="A9" s="55" t="s">
+        <v>735</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>723</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:4" ht="34">
-      <c r="A10" s="45" t="s">
-        <v>730</v>
+        <v>737</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17">
+      <c r="A10" s="53" t="s">
+        <v>728</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
     </row>
-    <row r="11" spans="1:4" ht="34">
-      <c r="A11" s="52" t="s">
-        <v>715</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>726</v>
+    <row r="11" spans="1:4" ht="17">
+      <c r="A11" s="45" t="s">
+        <v>721</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>740</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" ht="17">
-      <c r="A12" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>634</v>
+      <c r="A12" s="45" t="s">
+        <v>722</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>718</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" ht="17">
-      <c r="A13" s="47" t="s">
-        <v>635</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>636</v>
+      <c r="A13" s="45" t="s">
+        <v>723</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>729</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" ht="34">
-      <c r="A14" s="49" t="s">
-        <v>708</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>165</v>
+      <c r="A14" s="52" t="s">
+        <v>711</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>739</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" ht="17">
-      <c r="A15" s="49" t="s">
-        <v>693</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>697</v>
+      <c r="A15" s="47" t="s">
+        <v>632</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>633</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
     </row>
-    <row r="16" spans="1:4" ht="34">
-      <c r="A16" s="49" t="s">
-        <v>696</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>698</v>
+    <row r="16" spans="1:4" ht="17">
+      <c r="A16" s="47" t="s">
+        <v>634</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>635</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
     </row>
-    <row r="17" spans="1:4" ht="34">
-      <c r="A17" s="51" t="s">
-        <v>699</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>700</v>
+    <row r="17" spans="1:4" ht="17">
+      <c r="A17" s="49" t="s">
+        <v>704</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>164</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="18" spans="1:4" ht="34">
+    <row r="18" spans="1:4" ht="17">
       <c r="A18" s="49" t="s">
-        <v>711</v>
+        <v>692</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>716</v>
+        <v>695</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="34">
       <c r="A19" s="51" t="s">
-        <v>710</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>714</v>
+        <v>744</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>743</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" ht="17">
       <c r="A20" s="51" t="s">
-        <v>725</v>
+        <v>696</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" ht="17">
-      <c r="A21" s="51" t="s">
-        <v>727</v>
-      </c>
-      <c r="B21" s="46" t="s">
+      <c r="A21" s="49" t="s">
+        <v>707</v>
+      </c>
+      <c r="B21" s="44" t="s">
         <v>712</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:4" ht="17">
-      <c r="A22" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>694</v>
+    <row r="22" spans="1:4" ht="34">
+      <c r="A22" s="51" t="s">
+        <v>706</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>710</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:4" ht="17">
+    <row r="23" spans="1:4" ht="34">
       <c r="A23" s="51" t="s">
-        <v>701</v>
+        <v>719</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
     </row>
-    <row r="24" spans="1:4" ht="17">
-      <c r="A24" s="49" t="s">
-        <v>704</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>703</v>
+    <row r="24" spans="1:4" ht="34">
+      <c r="A24" s="51" t="s">
+        <v>720</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>708</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -15117,44 +16051,65 @@
         <v>163</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:4" ht="17">
-      <c r="A26" s="49" t="s">
-        <v>705</v>
-      </c>
-      <c r="B26" s="44" t="s">
-        <v>706</v>
+    <row r="26" spans="1:4" ht="34">
+      <c r="A26" s="51" t="s">
+        <v>698</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>699</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" ht="17">
       <c r="A27" s="49" t="s">
-        <v>159</v>
+        <v>701</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>160</v>
+        <v>700</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4" ht="17">
-      <c r="A28" s="42"/>
+      <c r="A28" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>691</v>
+      </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1">
-      <c r="B29" s="41"/>
-    </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1">
-      <c r="B30" s="41"/>
-    </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1">
-      <c r="B31" s="41"/>
+    <row r="29" spans="1:4" ht="17">
+      <c r="A29" s="49" t="s">
+        <v>702</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>703</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:4" ht="17">
+      <c r="A30" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:4" ht="17">
+      <c r="A31" s="42"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
       <c r="B32" s="41"/>
@@ -15210,8 +16165,17 @@
     <row r="49" spans="2:2" ht="20" customHeight="1">
       <c r="B49" s="41"/>
     </row>
+    <row r="50" spans="2:2" ht="20" customHeight="1">
+      <c r="B50" s="41"/>
+    </row>
+    <row r="51" spans="2:2" ht="20" customHeight="1">
+      <c r="B51" s="41"/>
+    </row>
+    <row r="52" spans="2:2" ht="20" customHeight="1">
+      <c r="B52" s="41"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D28">
+  <autoFilter ref="A1:D31">
     <sortState ref="A2:D27">
       <sortCondition sortBy="fontColor" ref="A1:A27" dxfId="1"/>
     </sortState>
@@ -15245,288 +16209,288 @@
   <sheetData>
     <row r="1" spans="2:5" ht="20" customHeight="1">
       <c r="B1" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C1" s="24" t="s">
+        <v>615</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>616</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>617</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="2" spans="2:5" ht="20" customHeight="1">
       <c r="B2" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="20" customHeight="1">
       <c r="B3" s="9" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="20" customHeight="1">
       <c r="B4" s="9" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20" customHeight="1">
       <c r="B5" s="33" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="20" customHeight="1">
       <c r="B6" s="33" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="20" customHeight="1">
       <c r="B7" s="34" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="20" customHeight="1">
       <c r="B8" s="34" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="20" customHeight="1">
       <c r="B9" s="33" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="20" customHeight="1">
       <c r="B10" s="33" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="20" customHeight="1">
       <c r="B11" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="20" customHeight="1">
       <c r="B12" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="20" customHeight="1">
       <c r="B13" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="20" customHeight="1">
       <c r="B14" s="35" t="s">
+        <v>626</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>627</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="20" customHeight="1">
       <c r="B15" s="36" t="s">
+        <v>628</v>
+      </c>
+      <c r="C15" s="28" t="s">
         <v>629</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="20" customHeight="1">
       <c r="B16" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="20" customHeight="1">
       <c r="B17" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="20" customHeight="1">
       <c r="B18" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="20" customHeight="1">
       <c r="B19" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>623</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="20" customHeight="1">
       <c r="B20" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="20" customHeight="1">
       <c r="B21" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="20" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="20" customHeight="1">
       <c r="B23" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="20" customHeight="1">
       <c r="B24" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="20" customHeight="1">
       <c r="B25" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="20" customHeight="1">
       <c r="B26" s="31" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="20" customHeight="1">
       <c r="B27" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="20" customHeight="1">
       <c r="B28" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="20" customHeight="1">
       <c r="B29" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="20" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="20" customHeight="1">
       <c r="B31" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="20" customHeight="1">
       <c r="B32" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="B33" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="B35" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
@@ -15534,138 +16498,138 @@
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="B37" s="17" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" t="s">
+        <v>665</v>
+      </c>
+      <c r="B38" s="38" t="s">
         <v>666</v>
-      </c>
-      <c r="B38" s="38" t="s">
-        <v>667</v>
       </c>
       <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" t="s">
+        <v>667</v>
+      </c>
+      <c r="B39" s="38" t="s">
         <v>668</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>669</v>
       </c>
       <c r="C39" s="4"/>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="B40" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>670</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
       <c r="B41" s="39" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C41" s="4"/>
     </row>
     <row r="42" spans="1:3" ht="20" customHeight="1">
       <c r="B42" s="37" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:3" ht="20" customHeight="1">
       <c r="A43" t="s">
+        <v>673</v>
+      </c>
+      <c r="B43" s="37" t="s">
         <v>674</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>675</v>
       </c>
       <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:3" ht="20" customHeight="1">
       <c r="A44" t="s">
+        <v>675</v>
+      </c>
+      <c r="B44" s="37" t="s">
         <v>676</v>
-      </c>
-      <c r="B44" s="37" t="s">
-        <v>677</v>
       </c>
       <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:3" ht="20" customHeight="1">
       <c r="A45" t="s">
+        <v>677</v>
+      </c>
+      <c r="B45" s="37" t="s">
         <v>678</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>679</v>
       </c>
       <c r="C45" s="4"/>
     </row>
     <row r="46" spans="1:3" ht="20" customHeight="1">
       <c r="B46" s="37" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C46" s="4"/>
     </row>
     <row r="47" spans="1:3" ht="20" customHeight="1">
       <c r="B47" s="37" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C47" s="4"/>
     </row>
     <row r="48" spans="1:3" ht="20" customHeight="1">
       <c r="B48" s="37" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C48" s="4"/>
     </row>
     <row r="49" spans="1:3" ht="20" customHeight="1">
       <c r="B49" s="37" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C49" s="4"/>
     </row>
     <row r="50" spans="1:3" ht="20" customHeight="1">
       <c r="B50" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C50" s="4"/>
     </row>
     <row r="51" spans="1:3" ht="20" customHeight="1">
       <c r="A51" t="s">
+        <v>684</v>
+      </c>
+      <c r="B51" s="37" t="s">
         <v>685</v>
-      </c>
-      <c r="B51" s="37" t="s">
-        <v>686</v>
       </c>
       <c r="C51" s="4"/>
     </row>
     <row r="52" spans="1:3" ht="20" customHeight="1">
       <c r="A52" t="s">
+        <v>686</v>
+      </c>
+      <c r="B52" s="37" t="s">
         <v>687</v>
-      </c>
-      <c r="B52" s="37" t="s">
-        <v>688</v>
       </c>
       <c r="C52" s="4"/>
     </row>
     <row r="53" spans="1:3" ht="20" customHeight="1">
       <c r="B53" s="37" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C53" s="4"/>
     </row>
     <row r="54" spans="1:3" ht="20" customHeight="1">
       <c r="B54" s="37" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:3" ht="20" customHeight="1">
       <c r="B55" s="37" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C55" s="4"/>
     </row>
@@ -15687,7 +16651,7 @@
   </sheetData>
   <autoFilter ref="B1:E60">
     <sortState ref="B2:E64">
-      <sortCondition sortBy="fontColor" ref="B1:B64" dxfId="8"/>
+      <sortCondition sortBy="fontColor" ref="B1:B64" dxfId="0"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -15718,30 +16682,30 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
@@ -15754,58 +16718,58 @@
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
@@ -15818,15 +16782,15 @@
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>155</v>
@@ -15834,394 +16798,394 @@
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
       <c r="A17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
       <c r="A18" t="s">
+        <v>256</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
       <c r="A19" t="s">
+        <v>260</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20" customHeight="1">
       <c r="A20" t="s">
+        <v>264</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20" customHeight="1">
       <c r="A21" t="s">
+        <v>268</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="20" customHeight="1">
       <c r="A22" t="s">
+        <v>272</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="20" customHeight="1">
       <c r="A23" t="s">
+        <v>276</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="20" customHeight="1">
       <c r="A24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="20" customHeight="1">
       <c r="A25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="20" customHeight="1">
       <c r="A26" t="s">
+        <v>286</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="20" customHeight="1">
       <c r="A27" t="s">
+        <v>290</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="20" customHeight="1">
       <c r="A28" t="s">
+        <v>294</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="20" customHeight="1">
       <c r="A29" t="s">
+        <v>298</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="20" customHeight="1">
       <c r="A30" t="s">
+        <v>302</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="20" customHeight="1">
       <c r="A31" t="s">
+        <v>306</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="20" customHeight="1">
       <c r="A32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="20" customHeight="1">
       <c r="A33" t="s">
+        <v>199</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="20" customHeight="1">
       <c r="A34" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="20" customHeight="1">
       <c r="A35" t="s">
+        <v>205</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="20" customHeight="1">
       <c r="A36" t="s">
+        <v>209</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="20" customHeight="1">
       <c r="A37" t="s">
+        <v>213</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="20" customHeight="1">
       <c r="A38" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="20" customHeight="1">
       <c r="A39" t="s">
+        <v>221</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="20" customHeight="1">
       <c r="A40" t="s">
+        <v>225</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="20" customHeight="1">
       <c r="A41" t="s">
+        <v>229</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="20" customHeight="1">
       <c r="A42" t="s">
+        <v>233</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="20" customHeight="1">
       <c r="A43" t="s">
+        <v>235</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="20" customHeight="1">
       <c r="A44" t="s">
+        <v>239</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="20" customHeight="1">
       <c r="A45" t="s">
+        <v>242</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="20" customHeight="1">
       <c r="A46" t="s">
+        <v>246</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="20" customHeight="1">
       <c r="A47" t="s">
+        <v>250</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="20" customHeight="1">
       <c r="A48" t="s">
+        <v>254</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="20" customHeight="1">
       <c r="A49" t="s">
+        <v>258</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="20" customHeight="1">
       <c r="A50" t="s">
+        <v>262</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="20" customHeight="1">
       <c r="A51" t="s">
+        <v>266</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="20" customHeight="1">
       <c r="A52" t="s">
+        <v>270</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="20" customHeight="1">
       <c r="A53" t="s">
+        <v>274</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="20" customHeight="1">
       <c r="A54" t="s">
+        <v>278</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="20" customHeight="1">
       <c r="A55" t="s">
+        <v>281</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="20" customHeight="1">
       <c r="A56" t="s">
+        <v>284</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="20" customHeight="1">
       <c r="A57" t="s">
+        <v>288</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="20" customHeight="1">
       <c r="A58" t="s">
+        <v>292</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="20" customHeight="1">
       <c r="A59" t="s">
+        <v>296</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="20" customHeight="1">
       <c r="A60" t="s">
+        <v>300</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="20" customHeight="1">
       <c r="A61" t="s">
+        <v>304</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="20" customHeight="1">
       <c r="A62" t="s">
+        <v>308</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="20" customHeight="1">
       <c r="A63" t="s">
+        <v>311</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="20" customHeight="1">
@@ -16332,472 +17296,472 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>315</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>326</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>334</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" t="s">
+        <v>347</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>348</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" t="s">
+        <v>351</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>352</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" t="s">
+        <v>355</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>356</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" t="s">
+        <v>359</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" t="s">
+        <v>363</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>364</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" t="s">
+        <v>365</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
       <c r="A17" t="s">
+        <v>369</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
       <c r="A18" t="s">
+        <v>373</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
       <c r="A19" t="s">
+        <v>377</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20" customHeight="1">
       <c r="A20" t="s">
+        <v>381</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>382</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20" customHeight="1">
       <c r="A21" t="s">
+        <v>385</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>386</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="20" customHeight="1">
       <c r="A22" t="s">
+        <v>389</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="20" customHeight="1">
       <c r="A23" t="s">
+        <v>393</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>394</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="20" customHeight="1">
       <c r="A24" t="s">
+        <v>397</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>398</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="20" customHeight="1">
       <c r="A25" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="20" customHeight="1">
       <c r="A26" t="s">
+        <v>404</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>405</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="20" customHeight="1">
       <c r="A27" t="s">
+        <v>408</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>409</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="20" customHeight="1">
       <c r="A28" t="s">
+        <v>412</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>413</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="20" customHeight="1">
       <c r="A29" t="s">
+        <v>416</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>417</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="20" customHeight="1">
       <c r="A30" t="s">
+        <v>420</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>421</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="20" customHeight="1">
       <c r="A31" t="s">
+        <v>316</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="20" customHeight="1">
       <c r="A32" t="s">
+        <v>320</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="20" customHeight="1">
       <c r="A33" t="s">
+        <v>323</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="20" customHeight="1">
       <c r="A34" t="s">
+        <v>327</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="20" customHeight="1">
       <c r="A35" t="s">
+        <v>331</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="20" customHeight="1">
       <c r="A36" t="s">
+        <v>335</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="20" customHeight="1">
       <c r="A37" t="s">
+        <v>338</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>339</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="20" customHeight="1">
       <c r="A38" t="s">
+        <v>342</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>343</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="20" customHeight="1">
       <c r="A39" t="s">
+        <v>345</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="20" customHeight="1">
       <c r="A40" t="s">
+        <v>349</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>350</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="20" customHeight="1">
       <c r="A41" t="s">
+        <v>353</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>354</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="20" customHeight="1">
       <c r="A42" t="s">
+        <v>357</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="20" customHeight="1">
       <c r="A43" t="s">
+        <v>361</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>362</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="20" customHeight="1">
       <c r="A44" t="s">
+        <v>612</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>613</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="20" customHeight="1">
       <c r="A45" t="s">
+        <v>367</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="20" customHeight="1">
       <c r="A46" t="s">
+        <v>371</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="20" customHeight="1">
       <c r="A47" t="s">
+        <v>375</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>376</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="20" customHeight="1">
       <c r="A48" t="s">
+        <v>379</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>380</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="20" customHeight="1">
       <c r="A49" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="B49" s="25" t="s">
         <v>384</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="20" customHeight="1">
       <c r="A50" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="B50" s="25" t="s">
         <v>388</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="20" customHeight="1">
       <c r="A51" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="B51" s="25" t="s">
         <v>392</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="20" customHeight="1">
       <c r="A52" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="B52" s="25" t="s">
         <v>396</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="20" customHeight="1">
       <c r="A53" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="B53" s="25" t="s">
         <v>400</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="20" customHeight="1">
       <c r="A54" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="B54" s="25" t="s">
         <v>403</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="20" customHeight="1">
       <c r="A55" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="B55" s="25" t="s">
         <v>407</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="20" customHeight="1">
       <c r="A56" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="B56" s="25" t="s">
         <v>411</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="20" customHeight="1">
       <c r="A57" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="B57" s="26" t="s">
         <v>415</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="20" customHeight="1">
       <c r="A58" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="B58" s="25" t="s">
         <v>419</v>
-      </c>
-      <c r="B58" s="25" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="20" customHeight="1">
@@ -16926,416 +17890,416 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1">
       <c r="A1" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>423</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>425</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>427</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>431</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>435</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" t="s">
+        <v>438</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>439</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>443</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" t="s">
+        <v>446</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>451</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>455</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" t="s">
+        <v>458</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>459</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" t="s">
+        <v>462</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>463</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" t="s">
+        <v>466</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>467</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" t="s">
+        <v>469</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" t="s">
+        <v>473</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>474</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" t="s">
+        <v>477</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>478</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" t="s">
+        <v>481</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>482</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
       <c r="A17" t="s">
+        <v>485</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>486</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
       <c r="A18" t="s">
+        <v>489</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>490</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
       <c r="A19" t="s">
+        <v>493</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>494</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20" customHeight="1">
       <c r="A20" t="s">
+        <v>497</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>498</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20" customHeight="1">
       <c r="A21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="20" customHeight="1">
       <c r="A22" t="s">
+        <v>504</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>505</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="20" customHeight="1">
       <c r="A23" t="s">
+        <v>508</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>509</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="20" customHeight="1">
       <c r="A24" t="s">
+        <v>512</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>513</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="20" customHeight="1">
       <c r="A25" t="s">
+        <v>516</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>517</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="20" customHeight="1">
       <c r="A26" t="s">
+        <v>520</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>521</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="20" customHeight="1">
       <c r="A27" t="s">
+        <v>428</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>429</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="20" customHeight="1">
       <c r="A28" t="s">
+        <v>432</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>433</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="20" customHeight="1">
       <c r="A29" t="s">
+        <v>436</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="20" customHeight="1">
       <c r="A30" t="s">
+        <v>440</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>441</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="20" customHeight="1">
       <c r="A31" t="s">
+        <v>444</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>445</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="20" customHeight="1">
       <c r="A32" t="s">
+        <v>448</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>449</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="20" customHeight="1">
       <c r="A33" t="s">
+        <v>452</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>453</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="20" customHeight="1">
       <c r="A34" t="s">
+        <v>456</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="20" customHeight="1">
       <c r="A35" t="s">
+        <v>460</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>461</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="20" customHeight="1">
       <c r="A36" t="s">
+        <v>464</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>465</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="20" customHeight="1">
       <c r="A37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="20" customHeight="1">
       <c r="A38" t="s">
+        <v>471</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>472</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="20" customHeight="1">
       <c r="A39" t="s">
+        <v>475</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>476</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="20" customHeight="1">
       <c r="A40" t="s">
+        <v>479</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>480</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="20" customHeight="1">
       <c r="A41" t="s">
+        <v>483</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>484</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="20" customHeight="1">
       <c r="A42" t="s">
+        <v>487</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>488</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="20" customHeight="1">
       <c r="A43" t="s">
+        <v>491</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>492</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="20" customHeight="1">
       <c r="A44" t="s">
+        <v>495</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>496</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="20" customHeight="1">
       <c r="A45" t="s">
+        <v>499</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>500</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="20" customHeight="1">
       <c r="A46" t="s">
+        <v>502</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>503</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="20" customHeight="1">
       <c r="A47" t="s">
+        <v>506</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>507</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="20" customHeight="1">
       <c r="A48" t="s">
+        <v>510</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>511</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="20" customHeight="1">
       <c r="A49" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="B49" s="25" t="s">
         <v>515</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="20" customHeight="1">
       <c r="A50" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="B50" s="25" t="s">
         <v>519</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="20" customHeight="1">
       <c r="A51" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="B51" s="25" t="s">
         <v>523</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="20" customHeight="1">
@@ -17484,336 +18448,336 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1">
       <c r="A1" s="22" t="s">
+        <v>524</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>525</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="23" t="s">
         <v>526</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>527</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>529</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>533</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" t="s">
+        <v>536</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>537</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" t="s">
+        <v>540</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>541</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" t="s">
+        <v>544</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>545</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" t="s">
+        <v>548</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>549</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" t="s">
+        <v>552</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>553</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" t="s">
+        <v>556</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>557</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" t="s">
+        <v>559</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>560</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" t="s">
+        <v>563</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>564</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" t="s">
+        <v>567</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>568</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" t="s">
+        <v>571</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>572</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" t="s">
+        <v>575</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>576</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" t="s">
+        <v>578</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>579</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" t="s">
+        <v>582</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>583</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
       <c r="A17" t="s">
+        <v>586</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>587</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
       <c r="A18" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
       <c r="A19" t="s">
+        <v>592</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>593</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20" customHeight="1">
       <c r="A20" t="s">
+        <v>596</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>597</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20" customHeight="1">
       <c r="A21" t="s">
+        <v>600</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>601</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="20" customHeight="1">
       <c r="A22" t="s">
+        <v>530</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>531</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="20" customHeight="1">
       <c r="A23" t="s">
+        <v>534</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>535</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="20" customHeight="1">
       <c r="A24" t="s">
+        <v>538</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>539</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="20" customHeight="1">
       <c r="A25" t="s">
+        <v>542</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>543</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="20" customHeight="1">
       <c r="A26" t="s">
+        <v>546</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>547</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="20" customHeight="1">
       <c r="A27" t="s">
+        <v>550</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>551</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="20" customHeight="1">
       <c r="A28" t="s">
+        <v>554</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>555</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="20" customHeight="1">
       <c r="A29" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="20" customHeight="1">
       <c r="A30" t="s">
+        <v>561</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>562</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="20" customHeight="1">
       <c r="A31" t="s">
+        <v>565</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>566</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="20" customHeight="1">
       <c r="A32" t="s">
+        <v>569</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>570</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="20" customHeight="1">
       <c r="A33" t="s">
+        <v>573</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>574</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="20" customHeight="1">
       <c r="A34" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="20" customHeight="1">
       <c r="A35" t="s">
+        <v>580</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>581</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="20" customHeight="1">
       <c r="A36" t="s">
+        <v>584</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>585</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="20" customHeight="1">
       <c r="A37" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="20" customHeight="1">
       <c r="A38" t="s">
+        <v>590</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>591</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="20" customHeight="1">
       <c r="A39" t="s">
+        <v>594</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>595</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="20" customHeight="1">
       <c r="A40" t="s">
+        <v>598</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>599</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="20" customHeight="1">
       <c r="A41" t="s">
+        <v>602</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>603</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="20" customHeight="1">
